--- a/docs/YXL_통합.xlsx
+++ b/docs/YXL_통합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjana\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6BA4F-520E-488F-AB9B-AB40119DB222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F313C567-D295-4166-BC45-995C618955E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="누적기여도" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="132">
   <si>
     <t>S1</t>
   </si>
@@ -449,6 +449,14 @@
     <t>5회차</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>신입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이터</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +551,13 @@
       <sz val="11"/>
       <color rgb="FF0100FF"/>
       <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -812,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,6 +954,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1158,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517C00E-3B9B-459B-8729-C0CC0C944FC6}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1668,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,14 +3335,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10786,7 +10803,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11257,7 +11274,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11872,8 +11889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12553,7 +12570,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14369,7 +14386,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14873,12 +14890,12 @@
         <v>504970</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>84</v>
+      <c r="B16" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>85</v>
@@ -15071,12 +15088,12 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>87</v>
+      <c r="B22" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>65</v>
@@ -15143,5 +15160,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/YXL_통합.xlsx
+++ b/docs/YXL_통합.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjana\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F313C567-D295-4166-BC45-995C618955E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440256A2-761F-4983-9553-D37AAFB23025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="누적기여도" sheetId="13" r:id="rId1"/>
+    <sheet name="누적기여도" sheetId="1" r:id="rId1"/>
     <sheet name="S1~S10 YXL_기여도" sheetId="2" r:id="rId2"/>
     <sheet name="YXL_시즌1_기여도" sheetId="3" r:id="rId3"/>
     <sheet name="YXL_시즌2_기여도표" sheetId="4" r:id="rId4"/>
@@ -25,11 +25,8 @@
     <sheet name="YXL_시즌8_누적기여도" sheetId="10" r:id="rId10"/>
     <sheet name="YXL_시즌9_누적기여도" sheetId="11" r:id="rId11"/>
     <sheet name="YXL_시즌10_누적기여도" sheetId="12" r:id="rId12"/>
+    <sheet name="설정" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S1~S10 YXL_기여도'!$A$1:$K$191</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">YXL_시즌8_누적기여도!$A$1:$J$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,159 +45,405 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="170">
+  <si>
+    <t>순위</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>누적 기여도 점수</t>
+  </si>
+  <si>
+    <t>변동</t>
+  </si>
+  <si>
+    <t>근속일수</t>
+  </si>
+  <si>
+    <t>근속_원본</t>
+  </si>
+  <si>
+    <t>후잉</t>
+  </si>
+  <si>
+    <t>D+439일</t>
+  </si>
+  <si>
+    <t>낭니</t>
+  </si>
+  <si>
+    <t>113일, 159일</t>
+  </si>
+  <si>
+    <t>유누</t>
+  </si>
+  <si>
+    <t>212일</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>194일</t>
+  </si>
+  <si>
+    <t>이슬이</t>
+  </si>
+  <si>
+    <t>241일</t>
+  </si>
+  <si>
+    <t>윤하랑</t>
+  </si>
+  <si>
+    <t>217일</t>
+  </si>
+  <si>
+    <t>은우</t>
+  </si>
+  <si>
+    <t>175일</t>
+  </si>
+  <si>
+    <t>채영</t>
+  </si>
+  <si>
+    <t>77일, 111일</t>
+  </si>
+  <si>
+    <t>류시아</t>
+  </si>
+  <si>
+    <t>110일</t>
+  </si>
+  <si>
+    <t>소다</t>
+  </si>
+  <si>
+    <t>D+422일</t>
+  </si>
+  <si>
+    <t>가비</t>
+  </si>
+  <si>
+    <t>280일</t>
+  </si>
+  <si>
+    <t>지유</t>
+  </si>
+  <si>
+    <t>루루</t>
+  </si>
+  <si>
+    <t>101일</t>
+  </si>
+  <si>
+    <t>타니</t>
+  </si>
+  <si>
+    <t>151일</t>
+  </si>
+  <si>
+    <t>리윤</t>
+  </si>
+  <si>
+    <t>D+179일</t>
+  </si>
+  <si>
+    <t>지연</t>
+  </si>
+  <si>
+    <t>128일</t>
+  </si>
+  <si>
+    <t>서니</t>
+  </si>
+  <si>
+    <t>D+191일</t>
+  </si>
+  <si>
+    <t>쩔밍</t>
+  </si>
+  <si>
+    <t>D+166일</t>
+  </si>
+  <si>
+    <t>라빈</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>D+112일</t>
+  </si>
+  <si>
+    <t>민트</t>
+  </si>
+  <si>
+    <t>유이린</t>
+  </si>
+  <si>
+    <t>105일</t>
+  </si>
+  <si>
+    <t>윤수</t>
+  </si>
+  <si>
+    <t>42일</t>
+  </si>
+  <si>
+    <t>강소지</t>
+  </si>
+  <si>
+    <t>D+137일</t>
+  </si>
+  <si>
+    <t>도맑음</t>
+  </si>
+  <si>
+    <t>73일</t>
+  </si>
+  <si>
+    <t>하랑짱</t>
+  </si>
+  <si>
+    <t>D+74일</t>
+  </si>
+  <si>
+    <t>아망뚜</t>
+  </si>
+  <si>
+    <t>28일</t>
+  </si>
+  <si>
+    <t>한유이</t>
+  </si>
+  <si>
+    <t>70일</t>
+  </si>
+  <si>
+    <t>이예또</t>
+  </si>
+  <si>
+    <t>57일, 30일</t>
+  </si>
+  <si>
+    <t>율무</t>
+  </si>
+  <si>
+    <t>D+67일</t>
+  </si>
+  <si>
+    <t>아리샤</t>
+  </si>
+  <si>
+    <t>62일</t>
+  </si>
+  <si>
+    <t>나령</t>
+  </si>
+  <si>
+    <t>24일</t>
+  </si>
+  <si>
+    <t>윤주아</t>
+  </si>
+  <si>
+    <t>50일</t>
+  </si>
+  <si>
+    <t>윤아현</t>
+  </si>
+  <si>
+    <t>성은</t>
+  </si>
+  <si>
+    <t>43일</t>
+  </si>
+  <si>
+    <t>파이</t>
+  </si>
+  <si>
+    <t>52일</t>
+  </si>
+  <si>
+    <t>채리나</t>
+  </si>
+  <si>
+    <t>34일</t>
+  </si>
+  <si>
+    <t>유나연</t>
+  </si>
+  <si>
+    <t>D+14일</t>
+  </si>
+  <si>
+    <t>나래</t>
+  </si>
+  <si>
+    <t>하쥬빈</t>
+  </si>
+  <si>
+    <t>17일</t>
+  </si>
+  <si>
+    <t>시즌</t>
+  </si>
+  <si>
+    <t>직급</t>
+  </si>
+  <si>
+    <t>스트리머</t>
+  </si>
+  <si>
+    <t>직급전</t>
+  </si>
+  <si>
+    <t>1회차</t>
+  </si>
+  <si>
+    <t>2회차</t>
+  </si>
+  <si>
+    <t>3회차</t>
+  </si>
+  <si>
+    <t>4회차</t>
+  </si>
+  <si>
+    <t>5회차</t>
+  </si>
+  <si>
+    <t>합산기여도</t>
+  </si>
   <si>
     <t>S1</t>
   </si>
   <si>
+    <t>부장</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>과장</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>S3</t>
+    <t>차장</t>
+  </si>
+  <si>
+    <t>주임</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>신입</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>비서실장</t>
   </si>
   <si>
     <t>S4</t>
   </si>
   <si>
-    <t>S5</t>
-  </si>
-  <si>
     <t>S6</t>
   </si>
   <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>시즌</t>
-  </si>
-  <si>
-    <t>순위</t>
-  </si>
-  <si>
-    <t>직급</t>
-  </si>
-  <si>
-    <t>스트리머</t>
-  </si>
-  <si>
-    <t>직급전</t>
-  </si>
-  <si>
-    <t>1회차</t>
-  </si>
-  <si>
-    <t>2회차</t>
-  </si>
-  <si>
-    <t>3회차</t>
-  </si>
-  <si>
-    <t>4회차</t>
-  </si>
-  <si>
-    <t>5회차</t>
-  </si>
-  <si>
-    <t>합산기여도</t>
-  </si>
-  <si>
-    <t>부장</t>
-  </si>
-  <si>
-    <t>류시아</t>
-  </si>
-  <si>
-    <t>차장</t>
-  </si>
-  <si>
-    <t>낭니</t>
-  </si>
-  <si>
-    <t>신입</t>
-  </si>
-  <si>
-    <t>채영</t>
-  </si>
-  <si>
-    <t>비서실장</t>
-  </si>
-  <si>
-    <t>후잉</t>
-  </si>
-  <si>
-    <t>주임</t>
+    <t>대리</t>
   </si>
   <si>
     <t>지연e</t>
   </si>
   <si>
-    <t>과장</t>
-  </si>
-  <si>
-    <t>윤수</t>
+    <t>복직자</t>
   </si>
   <si>
     <t>선임사원</t>
   </si>
   <si>
-    <t>이슬이</t>
-  </si>
-  <si>
-    <t>대리</t>
-  </si>
-  <si>
-    <t>소다</t>
+    <t>인턴</t>
   </si>
   <si>
     <t>인턴장</t>
   </si>
   <si>
-    <t>민트</t>
-  </si>
-  <si>
-    <t>인턴</t>
-  </si>
-  <si>
-    <t>라빈</t>
-  </si>
-  <si>
     <t>사원</t>
   </si>
   <si>
-    <t>가비</t>
+    <t>번데기장</t>
+  </si>
+  <si>
+    <t>팀장</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>염보성</t>
+  </si>
+  <si>
+    <t>이사</t>
+  </si>
+  <si>
+    <t>시급</t>
+  </si>
+  <si>
+    <t>시급(5만원)</t>
   </si>
   <si>
     <t>번데기</t>
   </si>
   <si>
-    <t>아리샤</t>
-  </si>
-  <si>
-    <t>번데기장</t>
-  </si>
-  <si>
-    <t>성은</t>
-  </si>
-  <si>
-    <t>윤하랑</t>
-  </si>
-  <si>
-    <t>유누</t>
-  </si>
-  <si>
-    <t>아망뚜</t>
-  </si>
-  <si>
-    <t>팀장</t>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>하랑e</t>
+  </si>
+  <si>
+    <t>버러지</t>
+  </si>
+  <si>
+    <t>인턴장 2.5%</t>
+  </si>
+  <si>
+    <t>번데기(시급)</t>
+  </si>
+  <si>
+    <t>게스트</t>
+  </si>
+  <si>
+    <t>퇴출</t>
+  </si>
+  <si>
+    <t>지두두</t>
+  </si>
+  <si>
+    <t>으냉이</t>
+  </si>
+  <si>
+    <t>선희</t>
+  </si>
+  <si>
+    <t>빵지니</t>
   </si>
   <si>
     <t>차돈</t>
@@ -209,7 +452,28 @@
     <t>섭이</t>
   </si>
   <si>
-    <t>퇴출</t>
+    <t>웨이터</t>
+  </si>
+  <si>
+    <t>김푸</t>
+  </si>
+  <si>
+    <t>시급(7만원)</t>
+  </si>
+  <si>
+    <t>꺼니</t>
+  </si>
+  <si>
+    <t>박하악</t>
+  </si>
+  <si>
+    <t>애벌레</t>
+  </si>
+  <si>
+    <t>총장대행</t>
+  </si>
+  <si>
+    <t>오메킴</t>
   </si>
   <si>
     <t>체험인턴</t>
@@ -218,243 +482,88 @@
     <t>설이</t>
   </si>
   <si>
-    <t>리아</t>
-  </si>
-  <si>
-    <t>번데기(시급)</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>염보성</t>
-  </si>
-  <si>
-    <t>시급</t>
-  </si>
-  <si>
-    <t>윤주아</t>
-  </si>
-  <si>
-    <t>박하악</t>
-  </si>
-  <si>
-    <t>웨이터</t>
+    <t>참가자</t>
+  </si>
+  <si>
+    <t>지학호</t>
   </si>
   <si>
     <t>고도준</t>
   </si>
   <si>
+    <t>웨아터</t>
+  </si>
+  <si>
     <t>박성진</t>
   </si>
   <si>
-    <t>게스트</t>
-  </si>
-  <si>
-    <t>하랑e</t>
-  </si>
-  <si>
-    <t>한유이</t>
-  </si>
-  <si>
-    <t>파이</t>
-  </si>
-  <si>
-    <t>복직자</t>
-  </si>
-  <si>
-    <t>나령</t>
-  </si>
-  <si>
-    <t>시급(5만원)</t>
-  </si>
-  <si>
-    <t>이예또</t>
-  </si>
-  <si>
-    <t>유이린</t>
-  </si>
-  <si>
-    <t>시급(7만원)</t>
-  </si>
-  <si>
     <t>시급(6만원)</t>
   </si>
   <si>
-    <t>타니</t>
-  </si>
-  <si>
-    <t>루루</t>
-  </si>
-  <si>
-    <t>버러지</t>
-  </si>
-  <si>
-    <t>도맑음</t>
-  </si>
-  <si>
-    <t>이사</t>
-  </si>
-  <si>
-    <t>지유</t>
-  </si>
-  <si>
-    <t>은우</t>
-  </si>
-  <si>
-    <t>인턴장 2.5%</t>
-  </si>
-  <si>
-    <t>리윤</t>
-  </si>
-  <si>
-    <t>선희</t>
-  </si>
-  <si>
-    <t>웨아터</t>
-  </si>
-  <si>
-    <t>서니</t>
-  </si>
-  <si>
-    <t>쩔밍</t>
-  </si>
-  <si>
-    <t>애벌레</t>
-  </si>
-  <si>
-    <t>강소지</t>
+    <t>승나무</t>
+  </si>
+  <si>
+    <t>김도준</t>
   </si>
   <si>
     <t>블라인드퇴출</t>
   </si>
   <si>
-    <t>김유정</t>
-  </si>
-  <si>
-    <t>YB</t>
-  </si>
-  <si>
-    <t>지두두</t>
-  </si>
-  <si>
-    <t>으냉이</t>
-  </si>
-  <si>
-    <t>빵지니</t>
-  </si>
-  <si>
-    <t>꺼니</t>
-  </si>
-  <si>
-    <t>김푸</t>
-  </si>
-  <si>
-    <t>총장대행</t>
-  </si>
-  <si>
-    <t>오메킴</t>
-  </si>
-  <si>
-    <t>참가자</t>
-  </si>
-  <si>
-    <t>지학호</t>
-  </si>
-  <si>
-    <t>승나무</t>
-  </si>
-  <si>
-    <t>하랑짱</t>
-  </si>
-  <si>
-    <t>윤아현</t>
-  </si>
-  <si>
-    <t>율무</t>
-  </si>
-  <si>
-    <t>채리나</t>
-  </si>
-  <si>
-    <t>김도준</t>
-  </si>
-  <si>
-    <t>하쥬빈</t>
-  </si>
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트리머</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적기여도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동사항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>지연</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>직급전</t>
+    <t>기준일</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+1 ▲</t>
+  </si>
+  <si>
+    <t>-1 ▼</t>
+  </si>
+  <si>
+    <t>+4 ▲</t>
+  </si>
+  <si>
+    <t>진입</t>
+  </si>
+  <si>
+    <t>113일, 159일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1회차</t>
+    <t>D+440일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2회차</t>
+    <t>D+423일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3회차</t>
+    <t>D+180일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4회차</t>
+    <t>D+192일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5회차</t>
+    <t>D+113일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>신입</t>
+    <t>D+134일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>웨이터</t>
+    <t>D+75일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D+68일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D+15일</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +571,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +588,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -509,31 +620,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
@@ -561,8 +648,54 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1266FF"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.15"/>
+      <color rgb="FF1266FF"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.15"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1DDB16"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA566FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,86 +1019,120 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,6 +1146,203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="AutoShape 2" descr="트위터 금메달 이모지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541ADF07-83A4-5999-C4B3-6A4267317FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="476250"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFC248A-327A-6A42-7DE9-94A1523DACFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="714375"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="AutoShape 4" descr="트위터 은메달 이모지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FE4129-135E-3F10-44EA-297E4A9D1D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="714375"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="AutoShape 6" descr="트위터 동메달 이모지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC287368-9723-7B8F-AC95-C346EEE391FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="1104900"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,493 +1543,846 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517C00E-3B9B-459B-8729-C0CC0C944FC6}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22">
+        <v>19091416</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="25">
+        <v>15427501</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28">
+        <v>14847704</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="31">
+        <v>14768277</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="31">
+        <v>14034989</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="31">
+        <v>12942724</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="31">
+        <v>12185151</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="31">
+        <v>11512806</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="31">
+        <v>11456411</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="34">
+        <v>8693716</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="31">
+        <v>7915239</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23">
-        <v>18459454</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="C13" s="31">
+        <v>7838874</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="31">
+        <v>6454586</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="31">
+        <v>6364013</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="34">
+        <v>6049955</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="31">
+        <v>4562135</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="34">
+        <v>3101895</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2947177</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="31">
+        <v>2502755</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="34">
+        <v>2363444</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2329750</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1830516</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1648474</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47">
         <v>24</v>
       </c>
-      <c r="C3" s="27">
-        <v>15427501</v>
-      </c>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="B25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1572657</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1400130</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1261608</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
+        <v>27</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1045272</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="31">
+        <v>916333</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47">
+        <v>29</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="31">
+        <v>691297</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="34">
+        <v>658302</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="31">
+        <v>609497</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="31">
+        <v>498141</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47">
+        <v>33</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="31">
+        <v>447343</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47">
+        <v>34</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="31">
+        <v>408299</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="31">
-        <v>14847704</v>
-      </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="35">
-        <v>14768277</v>
-      </c>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="35">
-        <v>14034989</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="35">
-        <v>12942724</v>
-      </c>
-      <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="35">
-        <v>12185151</v>
-      </c>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="35">
-        <v>11512806</v>
-      </c>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="35">
-        <v>11456411</v>
-      </c>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="F35" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="31">
+        <v>258402</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47">
         <v>36</v>
       </c>
-      <c r="C11" s="35">
-        <v>8436657</v>
-      </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="35">
-        <v>7915239</v>
-      </c>
-      <c r="D12" s="36"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="35">
-        <v>7838874</v>
-      </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
+      <c r="B37" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="31">
+        <v>254051</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <v>37</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="31">
+        <v>191849</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47">
+        <v>38</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="34">
+        <v>36115</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47">
+        <v>39</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="35">
-        <v>6454586</v>
-      </c>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>14</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="C40" s="34">
+        <v>17784</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="35">
-        <v>6364013</v>
-      </c>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="35">
-        <v>5540713</v>
-      </c>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="35">
-        <v>4562135</v>
-      </c>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="35">
-        <v>2989184</v>
-      </c>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="35">
-        <v>2854789</v>
-      </c>
-      <c r="D19" s="36"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50">
         <v>40</v>
       </c>
-      <c r="C20" s="35">
-        <v>2502755</v>
-      </c>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="35">
-        <v>2329750</v>
-      </c>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="35">
-        <v>2280444</v>
-      </c>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
-        <v>22</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="35">
-        <v>1830516</v>
-      </c>
-      <c r="D23" s="36"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
-        <v>23</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="35">
-        <v>1648474</v>
-      </c>
-      <c r="D24" s="36"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
-        <v>24</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="35">
-        <v>1529298</v>
-      </c>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
-      <c r="B26" s="34" t="s">
+      <c r="B41" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="52">
+        <v>11813</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="35">
-        <v>1400130</v>
-      </c>
-      <c r="D26" s="36"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33">
-        <v>26</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="35">
-        <v>1045272</v>
-      </c>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
-        <v>27</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="35">
-        <v>974340</v>
-      </c>
-      <c r="D28" s="37"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="35">
-        <v>916333</v>
-      </c>
-      <c r="D29" s="38"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="35">
-        <v>691297</v>
-      </c>
-      <c r="D30" s="38"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="35">
-        <v>609497</v>
-      </c>
-      <c r="D31" s="38"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="35">
-        <v>498141</v>
-      </c>
-      <c r="D32" s="36"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="35">
-        <v>447343</v>
-      </c>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33">
-        <v>33</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="35">
-        <v>408299</v>
-      </c>
-      <c r="D34" s="37"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="35">
-        <v>342029</v>
-      </c>
-      <c r="D35" s="37"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="35">
-        <v>258402</v>
-      </c>
-      <c r="D36" s="38"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="35">
-        <v>254051</v>
-      </c>
-      <c r="D37" s="38"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="35">
-        <v>191849</v>
-      </c>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="41">
-        <v>11813</v>
-      </c>
-      <c r="D39" s="42"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F41" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1682,34 +2405,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1717,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10">
         <v>591851</v>
@@ -1750,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10">
         <v>1141001</v>
@@ -1783,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10">
         <v>660862</v>
@@ -1816,10 +2539,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10">
         <v>357662</v>
@@ -1849,10 +2572,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10">
         <v>681469</v>
@@ -1882,10 +2605,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>421701</v>
@@ -1915,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10">
         <v>345252</v>
@@ -1948,10 +2671,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -1981,10 +2704,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -2014,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10">
         <v>53316</v>
@@ -2047,10 +2770,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10">
         <v>482687</v>
@@ -2080,10 +2803,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10">
         <v>327703</v>
@@ -2113,10 +2836,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -2146,10 +2869,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10">
         <v>323323</v>
@@ -2179,10 +2902,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -2212,10 +2935,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D17" s="10">
         <v>165031</v>
@@ -2245,10 +2968,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D18" s="10">
         <v>92074</v>
@@ -2278,10 +3001,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D19" s="10">
         <v>75552</v>
@@ -2311,10 +3034,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D20" s="10">
         <v>39535</v>
@@ -2344,10 +3067,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -2377,10 +3100,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -2410,10 +3133,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D23" s="10">
         <v>10623</v>
@@ -2439,9 +3162,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J23">
-    <sortCondition descending="1" ref="J2:J23"/>
-  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2461,36 +3181,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2498,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10">
         <v>1244049</v>
@@ -2530,10 +3250,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -2562,10 +3282,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10">
         <v>1011206</v>
@@ -2594,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10">
         <v>395677</v>
@@ -2626,10 +3346,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10">
         <v>394952</v>
@@ -2658,10 +3378,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>231094</v>
@@ -2690,10 +3410,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -2722,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10">
         <v>475313</v>
@@ -2754,10 +3474,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D10" s="10">
         <v>111111</v>
@@ -2786,10 +3506,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10">
         <v>175886</v>
@@ -2818,10 +3538,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -2850,10 +3570,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10">
         <v>100000</v>
@@ -2882,10 +3602,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10">
         <v>65317</v>
@@ -2914,10 +3634,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D15" s="10">
         <v>368410</v>
@@ -2946,10 +3666,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -2978,10 +3698,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -3010,10 +3730,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -3042,10 +3762,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10">
         <v>143207</v>
@@ -3074,10 +3794,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -3106,10 +3826,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -3138,10 +3858,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -3170,10 +3890,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -3202,10 +3922,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -3234,10 +3954,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
@@ -3266,10 +3986,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -3298,10 +4018,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="D27" s="10">
         <v>0</v>
@@ -3335,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -3344,36 +4064,36 @@
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3381,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D2" s="16">
         <v>925074</v>
@@ -3413,10 +4133,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D3" s="16">
         <v>794969</v>
@@ -3445,10 +4165,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D4" s="16">
         <v>960781</v>
@@ -3477,10 +4197,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D5" s="16">
         <v>508450</v>
@@ -3509,10 +4229,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D6" s="16">
         <v>353927</v>
@@ -3541,10 +4261,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D7" s="16">
         <v>243413</v>
@@ -3573,10 +4293,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D8" s="16">
         <v>292790</v>
@@ -3605,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D9" s="16">
         <v>153723</v>
@@ -3637,10 +4357,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
@@ -3669,10 +4389,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" s="16">
         <v>217561</v>
@@ -3701,10 +4421,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D12" s="16">
         <v>216364</v>
@@ -3733,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D13" s="16">
         <v>0</v>
@@ -3765,10 +4485,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D14" s="16">
         <v>0</v>
@@ -3797,10 +4517,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D15" s="16">
         <v>0</v>
@@ -3829,10 +4549,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D16" s="16">
         <v>165289</v>
@@ -3861,10 +4581,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D17" s="16">
         <v>61834</v>
@@ -3893,10 +4613,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D18" s="16">
         <v>0</v>
@@ -3925,10 +4645,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19" s="16">
         <v>99696</v>
@@ -3957,10 +4677,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D20" s="16">
         <v>11200</v>
@@ -3989,10 +4709,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -4021,10 +4741,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D22" s="16">
         <v>18405</v>
@@ -4053,10 +4773,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D23" s="16">
         <v>11813</v>
@@ -4083,6 +4803,30 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55">
+        <v>46016</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4106,48 +4850,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4176,16 +4920,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>2015765</v>
@@ -4211,16 +4955,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>925074</v>
@@ -4246,13 +4990,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -4281,16 +5025,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
         <v>1244049</v>
@@ -4316,16 +5060,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
         <v>848954</v>
@@ -4351,16 +5095,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>1153003</v>
@@ -4386,16 +5130,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>969739</v>
@@ -4421,16 +5165,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>1008708</v>
@@ -4456,16 +5200,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
         <v>591851</v>
@@ -4491,13 +5235,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -4526,16 +5270,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -4561,16 +5305,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>863720</v>
@@ -4596,16 +5340,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
         <v>1383340</v>
@@ -4631,16 +5375,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -4666,16 +5410,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3">
         <v>909238</v>
@@ -4701,16 +5445,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3">
         <v>567126</v>
@@ -4736,16 +5480,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3">
         <v>797378</v>
@@ -4771,16 +5515,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3">
         <v>801888</v>
@@ -4806,16 +5550,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -4841,16 +5585,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3">
         <v>794969</v>
@@ -4876,16 +5620,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -4911,16 +5655,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3">
         <v>1000066</v>
@@ -4946,16 +5690,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3">
         <v>486050</v>
@@ -4981,16 +5725,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
         <v>713545</v>
@@ -5016,16 +5760,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>388176</v>
@@ -5051,16 +5795,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3">
         <v>1010462</v>
@@ -5086,16 +5830,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>851192</v>
@@ -5121,16 +5865,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3">
         <v>1141001</v>
@@ -5156,16 +5900,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3">
         <v>1226169</v>
@@ -5191,16 +5935,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E32" s="3">
         <v>641703</v>
@@ -5226,16 +5970,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E33" s="3">
         <v>794394</v>
@@ -5261,16 +6005,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
         <v>1011206</v>
@@ -5296,16 +6040,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E35" s="3">
         <v>1067104</v>
@@ -5331,16 +6075,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E36" s="3">
         <v>1855686</v>
@@ -5366,16 +6110,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -5401,16 +6145,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3">
         <v>960781</v>
@@ -5436,16 +6180,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3">
         <v>650239</v>
@@ -5471,16 +6215,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E40" s="3">
         <v>812036</v>
@@ -5506,16 +6250,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E41" s="3">
         <v>513851</v>
@@ -5541,16 +6285,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3">
         <v>186355</v>
@@ -5576,16 +6320,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3">
         <v>613269</v>
@@ -5611,16 +6355,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E44" s="3">
         <v>1638477</v>
@@ -5646,16 +6390,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E45" s="3">
         <v>672620</v>
@@ -5681,16 +6425,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E46" s="3">
         <v>596340</v>
@@ -5716,16 +6460,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3">
         <v>660862</v>
@@ -5751,16 +6495,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E48" s="3">
         <v>244949</v>
@@ -5786,16 +6530,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E49" s="3">
         <v>395677</v>
@@ -5821,16 +6565,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E50" s="3">
         <v>357662</v>
@@ -5856,16 +6600,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E51" s="3">
         <v>334037</v>
@@ -5891,16 +6635,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3">
         <v>846054</v>
@@ -5926,16 +6670,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E53" s="3">
         <v>560000</v>
@@ -5961,16 +6705,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3">
         <v>593840</v>
@@ -5996,16 +6740,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E55" s="3">
         <v>681469</v>
@@ -6031,16 +6775,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E56" s="3">
         <v>793942</v>
@@ -6066,16 +6810,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E57" s="3">
         <v>421701</v>
@@ -6101,16 +6845,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E58" s="3">
         <v>394952</v>
@@ -6136,16 +6880,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3">
         <v>446051</v>
@@ -6171,16 +6915,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E60" s="3">
         <v>345252</v>
@@ -6206,16 +6950,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E61" s="3">
         <v>831350</v>
@@ -6241,16 +6985,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E62" s="3">
         <v>508450</v>
@@ -6276,16 +7020,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -6311,16 +7055,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -6346,16 +7090,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E65" s="3">
         <v>248746</v>
@@ -6381,16 +7125,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E66" s="3">
         <v>231094</v>
@@ -6416,16 +7160,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -6451,16 +7195,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E68" s="3">
         <v>268297</v>
@@ -6486,16 +7230,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E69" s="3">
         <v>64442</v>
@@ -6521,16 +7265,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -6556,16 +7300,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E71" s="3">
         <v>474258</v>
@@ -6591,16 +7335,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E72" s="3">
         <v>337470</v>
@@ -6626,16 +7370,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>
@@ -6661,16 +7405,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E74" s="3">
         <v>0</v>
@@ -6696,16 +7440,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E75" s="3">
         <v>370881</v>
@@ -6731,16 +7475,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E76" s="3">
         <v>381587</v>
@@ -6766,16 +7510,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
@@ -6801,16 +7545,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
@@ -6836,16 +7580,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E79" s="3">
         <v>527723</v>
@@ -6871,16 +7615,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E80" s="3">
         <v>228482</v>
@@ -6906,16 +7650,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E81" s="3">
         <v>53316</v>
@@ -6941,16 +7685,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E82" s="3">
         <v>353927</v>
@@ -6976,16 +7720,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E83" s="3">
         <v>482687</v>
@@ -7011,16 +7755,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E84" s="3">
         <v>475313</v>
@@ -7046,16 +7790,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E85" s="3">
         <v>96384</v>
@@ -7081,16 +7825,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E86" s="3">
         <v>201927</v>
@@ -7116,16 +7860,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E87" s="3">
         <v>121158</v>
@@ -7151,16 +7895,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2">
         <v>87</v>
       </c>
       <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" t="s">
         <v>41</v>
-      </c>
-      <c r="D88" t="s">
-        <v>40</v>
       </c>
       <c r="E88" s="3">
         <v>283163</v>
@@ -7186,16 +7930,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E89" s="3">
         <v>243413</v>
@@ -7221,16 +7965,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E90" s="3">
         <v>292790</v>
@@ -7256,16 +8000,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E91" s="3">
         <v>268103</v>
@@ -7291,16 +8035,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E92" s="3">
         <v>327703</v>
@@ -7326,16 +8070,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E93" s="3">
         <v>245802</v>
@@ -7361,16 +8105,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7396,16 +8140,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E95" s="3">
         <v>288846</v>
@@ -7431,16 +8175,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E96" s="3">
         <v>111111</v>
@@ -7466,16 +8210,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E97" s="3">
         <v>201396</v>
@@ -7501,16 +8245,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
@@ -7536,16 +8280,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E99" s="3">
         <v>455663</v>
@@ -7571,16 +8315,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7606,16 +8350,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E101" s="3">
         <v>153723</v>
@@ -7641,16 +8385,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E102" s="3">
         <v>175886</v>
@@ -7676,16 +8420,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E103" s="3">
         <v>292833</v>
@@ -7711,16 +8455,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E104" s="3">
         <v>53703</v>
@@ -7746,16 +8490,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E105" s="3">
         <v>0</v>
@@ -7781,16 +8525,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
@@ -7816,16 +8560,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B107" s="2">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E107" s="3">
         <v>93620</v>
@@ -7851,16 +8595,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E108" s="3">
         <v>175422</v>
@@ -7886,16 +8630,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
@@ -7921,16 +8665,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E110" s="3">
         <v>117641</v>
@@ -7956,16 +8700,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E111" s="3">
         <v>100259</v>
@@ -7991,16 +8735,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E112" s="3">
         <v>217561</v>
@@ -8026,16 +8770,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E113" s="3">
         <v>154970</v>
@@ -8061,16 +8805,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
@@ -8096,16 +8840,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E115" s="3">
         <v>216364</v>
@@ -8131,16 +8875,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2">
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E116" s="3">
         <v>100000</v>
@@ -8166,16 +8910,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E117" s="3">
         <v>52365</v>
@@ -8201,16 +8945,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D118" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
@@ -8236,16 +8980,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E119" s="3">
         <v>0</v>
@@ -8271,16 +9015,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D120" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E120" s="3">
         <v>0</v>
@@ -8306,16 +9050,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E121" s="3">
         <v>440021</v>
@@ -8341,16 +9085,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
@@ -8376,16 +9120,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E123" s="3">
         <v>65317</v>
@@ -8411,16 +9155,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E124" s="3">
         <v>368410</v>
@@ -8446,16 +9190,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E125" s="3">
         <v>0</v>
@@ -8481,16 +9225,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E126" s="3">
         <v>34213</v>
@@ -8516,16 +9260,16 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B127" s="2">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E127" s="3">
         <v>341917</v>
@@ -8551,16 +9295,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B128" s="2">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D128" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
@@ -8586,16 +9330,16 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E129" s="3">
         <v>134829</v>
@@ -8621,16 +9365,16 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
@@ -8656,16 +9400,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B131" s="2">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E131" s="3">
         <v>323323</v>
@@ -8691,16 +9435,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B132" s="2">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
@@ -8726,16 +9470,16 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D133" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
@@ -8761,16 +9505,16 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B134" s="2">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D134" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
@@ -8796,16 +9540,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B135" s="2">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D135" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
@@ -8831,16 +9575,16 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
@@ -8866,16 +9610,16 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B137" s="2">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D137" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
@@ -8901,16 +9645,16 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B138" s="2">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E138" s="3">
         <v>132561</v>
@@ -8936,16 +9680,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E139" s="3">
         <v>254513</v>
@@ -8971,16 +9715,16 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B140" s="2">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D140" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
@@ -9006,16 +9750,16 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B141" s="2">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E141" s="3">
         <v>0</v>
@@ -9041,16 +9785,16 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B142" s="2">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D142" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
@@ -9076,16 +9820,16 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B143" s="2">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E143" s="3">
         <v>0</v>
@@ -9111,16 +9855,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B144" s="2">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D144" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
@@ -9146,16 +9890,16 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B145" s="2">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E145" s="3">
         <v>165289</v>
@@ -9181,16 +9925,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B146" s="2">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D146" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E146" s="3">
         <v>165031</v>
@@ -9216,16 +9960,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B147" s="2">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
@@ -9251,16 +9995,16 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B148" s="2">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D148" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="E148" s="3">
         <v>61834</v>
@@ -9286,16 +10030,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B149" s="2">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D149" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E149" s="3">
         <v>143207</v>
@@ -9321,16 +10065,16 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B150" s="2">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D150" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
@@ -9356,16 +10100,16 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B151" s="2">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D151" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E151" s="3">
         <v>116032</v>
@@ -9391,16 +10135,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B152" s="2">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
@@ -9426,16 +10170,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B153" s="2">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E153" s="3">
         <v>99696</v>
@@ -9461,16 +10205,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B154" s="2">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E154" s="3">
         <v>92074</v>
@@ -9496,16 +10240,16 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B155" s="2">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D155" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
@@ -9531,16 +10275,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B156" s="2">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D156" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
@@ -9566,16 +10310,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B157" s="2">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D157" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
@@ -9601,16 +10345,16 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B158" s="2">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
@@ -9636,16 +10380,16 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B159" s="2">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D159" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
@@ -9671,16 +10415,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B160" s="2">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E160" s="3">
         <v>75552</v>
@@ -9706,16 +10450,16 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B161" s="2">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D161" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E161" s="3">
         <v>72642</v>
@@ -9741,16 +10485,16 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B162" s="2">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D162" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
@@ -9776,16 +10520,16 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B163" s="2">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D163" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E163" s="3">
         <v>11200</v>
@@ -9811,16 +10555,16 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B164" s="2">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D164" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="E164" s="3">
         <v>0</v>
@@ -9846,16 +10590,16 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B165" s="2">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E165" s="3">
         <v>0</v>
@@ -9881,16 +10625,16 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B166" s="2">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="D166" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="E166" s="3">
         <v>0</v>
@@ -9916,16 +10660,16 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B167" s="2">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D167" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E167" s="3">
         <v>55575</v>
@@ -9951,16 +10695,16 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B168" s="2">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D168" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E168" s="3">
         <v>0</v>
@@ -9986,16 +10730,16 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B169" s="2">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D169" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E169" s="3">
         <v>0</v>
@@ -10021,16 +10765,16 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B170" s="2">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D170" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E170" s="3">
         <v>0</v>
@@ -10056,16 +10800,16 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B171" s="2">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D171" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E171" s="3">
         <v>0</v>
@@ -10091,16 +10835,16 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B172" s="2">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="D172" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E172" s="3">
         <v>0</v>
@@ -10126,16 +10870,16 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B173" s="2">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D173" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E173" s="3">
         <v>0</v>
@@ -10161,16 +10905,16 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B174" s="2">
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D174" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E174" s="3">
         <v>39535</v>
@@ -10196,16 +10940,16 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B175" s="2">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D175" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
@@ -10231,16 +10975,16 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B176" s="2">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D176" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
@@ -10266,16 +11010,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B177" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D177" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
@@ -10301,16 +11045,16 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B178" s="2">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D178" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
@@ -10336,16 +11080,16 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B179" s="2">
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D179" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E179" s="3">
         <v>0</v>
@@ -10371,16 +11115,16 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B180" s="2">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E180" s="3">
         <v>0</v>
@@ -10406,16 +11150,16 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B181" s="2">
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D181" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E181" s="3">
         <v>11369</v>
@@ -10441,16 +11185,16 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B182" s="2">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D182" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E182" s="3">
         <v>28073</v>
@@ -10476,16 +11220,16 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B183" s="2">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D183" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="E183" s="3">
         <v>0</v>
@@ -10511,16 +11255,16 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B184" s="2">
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D184" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E184" s="3">
         <v>18405</v>
@@ -10546,16 +11290,16 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B185" s="2">
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D185" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E185" s="3">
         <v>0</v>
@@ -10581,16 +11325,16 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B186" s="2">
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D186" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E186" s="3">
         <v>11813</v>
@@ -10616,16 +11360,16 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B187" s="2">
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D187" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E187" s="3">
         <v>10623</v>
@@ -10651,16 +11395,16 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B188" s="2">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D188" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E188" s="3">
         <v>0</v>
@@ -10686,16 +11430,16 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B189" s="2">
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D189" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E189" s="3">
         <v>0</v>
@@ -10721,16 +11465,16 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B190" s="2">
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D190" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E190" s="3">
         <v>0</v>
@@ -10756,16 +11500,16 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B191" s="2">
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D191" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E191" s="3">
         <v>8322</v>
@@ -10814,36 +11558,36 @@
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10851,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>22</v>
@@ -10883,10 +11627,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>1008708</v>
@@ -10915,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -10948,10 +11692,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
         <v>513851</v>
@@ -10980,10 +11724,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7">
         <v>334037</v>
@@ -11012,10 +11756,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
         <v>846054</v>
@@ -11044,10 +11788,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
         <v>248746</v>
@@ -11076,10 +11820,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
         <v>381587</v>
@@ -11108,10 +11852,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
         <v>228482</v>
@@ -11140,10 +11884,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
         <v>201927</v>
@@ -11172,10 +11916,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
         <v>245802</v>
@@ -11204,10 +11948,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
         <v>117641</v>
@@ -11236,10 +11980,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
         <v>132561</v>
@@ -11286,36 +12030,36 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11323,10 +12067,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D2" s="10">
         <v>848954</v>
@@ -11347,7 +12091,7 @@
         <v>414922</v>
       </c>
       <c r="J2" s="10">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J18" si="0">SUM(D2:I2)</f>
         <v>3557885</v>
       </c>
     </row>
@@ -11359,7 +12103,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
         <v>1004444</v>
@@ -11380,7 +12124,7 @@
         <v>230683</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J18" si="0">SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>3070017</v>
       </c>
     </row>
@@ -11389,10 +12133,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D4" s="10">
         <v>1383340</v>
@@ -11422,10 +12166,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D5" s="10">
         <v>797378</v>
@@ -11455,10 +12199,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -11488,10 +12232,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D7" s="10">
         <v>388176</v>
@@ -11521,10 +12265,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D8" s="10">
         <v>1226169</v>
@@ -11554,10 +12298,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D9" s="10">
         <v>244949</v>
@@ -11587,10 +12331,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -11620,10 +12364,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D11" s="10">
         <v>283163</v>
@@ -11653,10 +12397,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D12" s="10">
         <v>268103</v>
@@ -11686,10 +12430,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -11719,10 +12463,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D14" s="10">
         <v>93620</v>
@@ -11752,10 +12496,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -11785,10 +12529,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -11818,10 +12562,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D17" s="10">
         <v>72642</v>
@@ -11851,10 +12595,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -11900,36 +12644,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11937,10 +12681,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D2" s="10">
         <v>2015765</v>
@@ -11961,7 +12705,7 @@
         <v>448014</v>
       </c>
       <c r="J2" s="10">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J20" si="0">SUM(D2:I2)</f>
         <v>4342396</v>
       </c>
     </row>
@@ -11973,7 +12717,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
         <v>2402902</v>
@@ -11994,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J20" si="0">SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>3687480</v>
       </c>
     </row>
@@ -12003,10 +12747,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D4" s="10">
         <v>1153003</v>
@@ -12036,10 +12780,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10">
         <v>1067104</v>
@@ -12069,10 +12813,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D6" s="10">
         <v>1855686</v>
@@ -12102,10 +12846,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10">
         <v>812036</v>
@@ -12135,10 +12879,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D8" s="10">
         <v>1638477</v>
@@ -12168,10 +12912,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D9" s="10">
         <v>446051</v>
@@ -12201,10 +12945,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -12234,10 +12978,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D11" s="10">
         <v>527723</v>
@@ -12267,10 +13011,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D12" s="10">
         <v>288846</v>
@@ -12300,10 +13044,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D13" s="10">
         <v>455663</v>
@@ -12333,10 +13077,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D14" s="10">
         <v>440021</v>
@@ -12366,10 +13110,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -12399,10 +13143,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D16" s="10">
         <v>341917</v>
@@ -12432,10 +13176,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -12465,10 +13209,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -12498,10 +13242,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -12531,10 +13275,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -12580,36 +13324,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12617,10 +13361,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D2" s="10">
         <v>567126</v>
@@ -12641,7 +13385,7 @@
         <v>212378</v>
       </c>
       <c r="J2" s="10">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J15" si="0">SUM(D2:I2)</f>
         <v>2750614</v>
       </c>
     </row>
@@ -12650,10 +13394,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D3" s="10">
         <v>641703</v>
@@ -12674,7 +13418,7 @@
         <v>380703</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J15" si="0">SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>2090551</v>
       </c>
     </row>
@@ -12683,10 +13427,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D4" s="10">
         <v>186355</v>
@@ -12716,10 +13460,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10">
         <v>64442</v>
@@ -12749,10 +13493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10">
         <v>474258</v>
@@ -12782,10 +13526,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D7" s="10">
         <v>337470</v>
@@ -12815,10 +13559,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D8" s="10">
         <v>154970</v>
@@ -12848,10 +13592,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -12881,10 +13625,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10">
         <v>134829</v>
@@ -12914,10 +13658,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -12947,10 +13691,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -12980,10 +13724,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -13013,10 +13757,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -13046,10 +13790,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -13097,36 +13841,36 @@
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13134,10 +13878,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D2" s="10">
         <v>969739</v>
@@ -13158,7 +13902,7 @@
         <v>522076</v>
       </c>
       <c r="J2" s="18">
-        <f>SUM(D2:I2)</f>
+        <f t="shared" ref="J2:J18" si="0">SUM(D2:I2)</f>
         <v>3307868</v>
       </c>
     </row>
@@ -13167,10 +13911,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
         <v>909238</v>
@@ -13191,7 +13935,7 @@
         <v>671288</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="0">SUM(D3:I3)</f>
+        <f t="shared" si="0"/>
         <v>2800254</v>
       </c>
     </row>
@@ -13200,10 +13944,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D4" s="10">
         <v>801888</v>
@@ -13233,10 +13977,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D5" s="10">
         <v>486050</v>
@@ -13266,10 +14010,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -13299,10 +14043,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D7" s="10">
         <v>593840</v>
@@ -13332,10 +14076,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D8" s="10">
         <v>268297</v>
@@ -13365,10 +14109,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D9" s="10">
         <v>96384</v>
@@ -13398,10 +14142,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -13431,10 +14175,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D11" s="10">
         <v>53703</v>
@@ -13464,10 +14208,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -13497,10 +14241,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D13" s="10">
         <v>34213</v>
@@ -13530,10 +14274,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -13563,10 +14307,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -13596,10 +14340,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -13629,10 +14373,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D17" s="10">
         <v>11369</v>
@@ -13662,10 +14406,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D18" s="10">
         <v>28073</v>
@@ -13713,36 +14457,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13750,10 +14494,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D2" s="10">
         <v>1000066</v>
@@ -13783,10 +14527,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D3" s="10">
         <v>1010462</v>
@@ -13816,10 +14560,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D4" s="10">
         <v>794394</v>
@@ -13849,10 +14593,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10">
         <v>613269</v>
@@ -13882,10 +14626,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D6" s="10">
         <v>672620</v>
@@ -13915,10 +14659,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D7" s="10">
         <v>560000</v>
@@ -13948,10 +14692,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D8" s="10">
         <v>831350</v>
@@ -13981,10 +14725,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -14014,10 +14758,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -14047,10 +14791,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -14080,10 +14824,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D12" s="10">
         <v>100259</v>
@@ -14113,10 +14857,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D13" s="10">
         <v>52365</v>
@@ -14146,10 +14890,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -14179,10 +14923,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D15" s="10">
         <v>254513</v>
@@ -14212,10 +14956,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -14245,10 +14989,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D17" s="10">
         <v>55575</v>
@@ -14278,10 +15022,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -14311,10 +15055,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -14344,10 +15088,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D20" s="10">
         <v>8322</v>
@@ -14373,9 +15117,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J20">
-    <sortCondition descending="1" ref="J2:J20"/>
-  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14396,36 +15137,36 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14433,10 +15174,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10">
         <v>863720</v>
@@ -14466,10 +15207,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -14499,10 +15240,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10">
         <v>713545</v>
@@ -14532,10 +15273,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10">
         <v>851192</v>
@@ -14565,10 +15306,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D6" s="10">
         <v>650239</v>
@@ -14598,10 +15339,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>596340</v>
@@ -14631,10 +15372,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D8" s="10">
         <v>793942</v>
@@ -14664,10 +15405,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -14697,10 +15438,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10">
         <v>370881</v>
@@ -14730,10 +15471,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10">
         <v>121158</v>
@@ -14763,10 +15504,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10">
         <v>201396</v>
@@ -14796,10 +15537,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D13" s="10">
         <v>292833</v>
@@ -14829,10 +15570,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10">
         <v>175422</v>
@@ -14862,10 +15603,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -14890,15 +15631,15 @@
         <v>504970</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>130</v>
+      <c r="B16" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -14928,10 +15669,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -14961,10 +15702,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D18" s="10">
         <v>116032</v>
@@ -14994,10 +15735,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -15027,10 +15768,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -15060,10 +15801,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -15088,15 +15829,15 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>131</v>
+      <c r="B22" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -15121,10 +15862,10 @@
         <v>40434</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="11" t="str">
         <f t="shared" ref="D24:J24" ca="1" si="1">SUM(D2:D24)</f>
         <v/>
@@ -15160,6 +15901,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>
--- a/docs/YXL_통합.xlsx
+++ b/docs/YXL_통합.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjana\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440256A2-761F-4983-9553-D37AAFB23025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AD44BB-4EE2-4EE2-9EB9-B79E986AF560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="누적기여도" sheetId="1" r:id="rId1"/>
+    <sheet name="누적기여도" sheetId="13" r:id="rId1"/>
     <sheet name="S1~S10 YXL_기여도" sheetId="2" r:id="rId2"/>
     <sheet name="YXL_시즌1_기여도" sheetId="3" r:id="rId3"/>
     <sheet name="YXL_시즌2_기여도표" sheetId="4" r:id="rId4"/>
@@ -25,8 +25,11 @@
     <sheet name="YXL_시즌8_누적기여도" sheetId="10" r:id="rId10"/>
     <sheet name="YXL_시즌9_누적기여도" sheetId="11" r:id="rId11"/>
     <sheet name="YXL_시즌10_누적기여도" sheetId="12" r:id="rId12"/>
-    <sheet name="설정" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S1~S10 YXL_기여도'!$A$1:$K$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">YXL_시즌8_누적기여도!$A$1:$J$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,252 +48,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="130">
   <si>
-    <t>순위</t>
+    <t>S1</t>
   </si>
   <si>
-    <t>이름</t>
+    <t>S2</t>
   </si>
   <si>
-    <t>누적 기여도 점수</t>
+    <t>S3</t>
   </si>
   <si>
-    <t>변동</t>
+    <t>S4</t>
   </si>
   <si>
-    <t>근속일수</t>
+    <t>S5</t>
   </si>
   <si>
-    <t>근속_원본</t>
+    <t>S6</t>
   </si>
   <si>
-    <t>후잉</t>
+    <t>S7</t>
   </si>
   <si>
-    <t>D+439일</t>
+    <t>S8</t>
   </si>
   <si>
-    <t>낭니</t>
+    <t>S9</t>
   </si>
   <si>
-    <t>113일, 159일</t>
-  </si>
-  <si>
-    <t>유누</t>
-  </si>
-  <si>
-    <t>212일</t>
-  </si>
-  <si>
-    <t>리아</t>
-  </si>
-  <si>
-    <t>194일</t>
-  </si>
-  <si>
-    <t>이슬이</t>
-  </si>
-  <si>
-    <t>241일</t>
-  </si>
-  <si>
-    <t>윤하랑</t>
-  </si>
-  <si>
-    <t>217일</t>
-  </si>
-  <si>
-    <t>은우</t>
-  </si>
-  <si>
-    <t>175일</t>
-  </si>
-  <si>
-    <t>채영</t>
-  </si>
-  <si>
-    <t>77일, 111일</t>
-  </si>
-  <si>
-    <t>류시아</t>
-  </si>
-  <si>
-    <t>110일</t>
-  </si>
-  <si>
-    <t>소다</t>
-  </si>
-  <si>
-    <t>D+422일</t>
-  </si>
-  <si>
-    <t>가비</t>
-  </si>
-  <si>
-    <t>280일</t>
-  </si>
-  <si>
-    <t>지유</t>
-  </si>
-  <si>
-    <t>루루</t>
-  </si>
-  <si>
-    <t>101일</t>
-  </si>
-  <si>
-    <t>타니</t>
-  </si>
-  <si>
-    <t>151일</t>
-  </si>
-  <si>
-    <t>리윤</t>
-  </si>
-  <si>
-    <t>D+179일</t>
-  </si>
-  <si>
-    <t>지연</t>
-  </si>
-  <si>
-    <t>128일</t>
-  </si>
-  <si>
-    <t>서니</t>
-  </si>
-  <si>
-    <t>D+191일</t>
-  </si>
-  <si>
-    <t>쩔밍</t>
-  </si>
-  <si>
-    <t>D+166일</t>
-  </si>
-  <si>
-    <t>라빈</t>
-  </si>
-  <si>
-    <t>김유정</t>
-  </si>
-  <si>
-    <t>D+112일</t>
-  </si>
-  <si>
-    <t>민트</t>
-  </si>
-  <si>
-    <t>유이린</t>
-  </si>
-  <si>
-    <t>105일</t>
-  </si>
-  <si>
-    <t>윤수</t>
-  </si>
-  <si>
-    <t>42일</t>
-  </si>
-  <si>
-    <t>강소지</t>
-  </si>
-  <si>
-    <t>D+137일</t>
-  </si>
-  <si>
-    <t>도맑음</t>
-  </si>
-  <si>
-    <t>73일</t>
-  </si>
-  <si>
-    <t>하랑짱</t>
-  </si>
-  <si>
-    <t>D+74일</t>
-  </si>
-  <si>
-    <t>아망뚜</t>
-  </si>
-  <si>
-    <t>28일</t>
-  </si>
-  <si>
-    <t>한유이</t>
-  </si>
-  <si>
-    <t>70일</t>
-  </si>
-  <si>
-    <t>이예또</t>
-  </si>
-  <si>
-    <t>57일, 30일</t>
-  </si>
-  <si>
-    <t>율무</t>
-  </si>
-  <si>
-    <t>D+67일</t>
-  </si>
-  <si>
-    <t>아리샤</t>
-  </si>
-  <si>
-    <t>62일</t>
-  </si>
-  <si>
-    <t>나령</t>
-  </si>
-  <si>
-    <t>24일</t>
-  </si>
-  <si>
-    <t>윤주아</t>
-  </si>
-  <si>
-    <t>50일</t>
-  </si>
-  <si>
-    <t>윤아현</t>
-  </si>
-  <si>
-    <t>성은</t>
-  </si>
-  <si>
-    <t>43일</t>
-  </si>
-  <si>
-    <t>파이</t>
-  </si>
-  <si>
-    <t>52일</t>
-  </si>
-  <si>
-    <t>채리나</t>
-  </si>
-  <si>
-    <t>34일</t>
-  </si>
-  <si>
-    <t>유나연</t>
-  </si>
-  <si>
-    <t>D+14일</t>
-  </si>
-  <si>
-    <t>나래</t>
-  </si>
-  <si>
-    <t>하쥬빈</t>
-  </si>
-  <si>
-    <t>17일</t>
+    <t>S10</t>
   </si>
   <si>
     <t>시즌</t>
+  </si>
+  <si>
+    <t>순위</t>
   </si>
   <si>
     <t>직급</t>
@@ -320,79 +113,115 @@
     <t>합산기여도</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>부장</t>
   </si>
   <si>
-    <t>S3</t>
+    <t>류시아</t>
+  </si>
+  <si>
+    <t>차장</t>
+  </si>
+  <si>
+    <t>낭니</t>
+  </si>
+  <si>
+    <t>신입</t>
+  </si>
+  <si>
+    <t>채영</t>
+  </si>
+  <si>
+    <t>비서실장</t>
+  </si>
+  <si>
+    <t>후잉</t>
+  </si>
+  <si>
+    <t>주임</t>
+  </si>
+  <si>
+    <t>지연e</t>
   </si>
   <si>
     <t>과장</t>
   </si>
   <si>
-    <t>S10</t>
+    <t>윤수</t>
   </si>
   <si>
-    <t>S9</t>
+    <t>선임사원</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>차장</t>
-  </si>
-  <si>
-    <t>주임</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>신입</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>비서실장</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S6</t>
+    <t>이슬이</t>
   </si>
   <si>
     <t>대리</t>
   </si>
   <si>
-    <t>지연e</t>
+    <t>소다</t>
   </si>
   <si>
-    <t>복직자</t>
+    <t>인턴장</t>
   </si>
   <si>
-    <t>선임사원</t>
+    <t>민트</t>
   </si>
   <si>
     <t>인턴</t>
   </si>
   <si>
-    <t>인턴장</t>
+    <t>라빈</t>
   </si>
   <si>
     <t>사원</t>
   </si>
   <si>
+    <t>가비</t>
+  </si>
+  <si>
+    <t>번데기</t>
+  </si>
+  <si>
+    <t>아리샤</t>
+  </si>
+  <si>
     <t>번데기장</t>
   </si>
   <si>
+    <t>성은</t>
+  </si>
+  <si>
+    <t>윤하랑</t>
+  </si>
+  <si>
+    <t>유누</t>
+  </si>
+  <si>
+    <t>아망뚜</t>
+  </si>
+  <si>
     <t>팀장</t>
+  </si>
+  <si>
+    <t>차돈</t>
+  </si>
+  <si>
+    <t>섭이</t>
+  </si>
+  <si>
+    <t>퇴출</t>
+  </si>
+  <si>
+    <t>체험인턴</t>
+  </si>
+  <si>
+    <t>설이</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>번데기(시급)</t>
   </si>
   <si>
     <t>대표</t>
@@ -401,37 +230,109 @@
     <t>염보성</t>
   </si>
   <si>
-    <t>이사</t>
+    <t>시급</t>
   </si>
   <si>
-    <t>시급</t>
+    <t>윤주아</t>
+  </si>
+  <si>
+    <t>박하악</t>
+  </si>
+  <si>
+    <t>웨이터</t>
+  </si>
+  <si>
+    <t>고도준</t>
+  </si>
+  <si>
+    <t>박성진</t>
+  </si>
+  <si>
+    <t>게스트</t>
+  </si>
+  <si>
+    <t>하랑e</t>
+  </si>
+  <si>
+    <t>한유이</t>
+  </si>
+  <si>
+    <t>파이</t>
+  </si>
+  <si>
+    <t>복직자</t>
+  </si>
+  <si>
+    <t>나령</t>
   </si>
   <si>
     <t>시급(5만원)</t>
   </si>
   <si>
-    <t>번데기</t>
+    <t>이예또</t>
   </si>
   <si>
-    <t>YB</t>
+    <t>유이린</t>
   </si>
   <si>
-    <t>하랑e</t>
+    <t>시급(7만원)</t>
+  </si>
+  <si>
+    <t>시급(6만원)</t>
+  </si>
+  <si>
+    <t>타니</t>
+  </si>
+  <si>
+    <t>루루</t>
   </si>
   <si>
     <t>버러지</t>
   </si>
   <si>
+    <t>도맑음</t>
+  </si>
+  <si>
+    <t>이사</t>
+  </si>
+  <si>
+    <t>지유</t>
+  </si>
+  <si>
+    <t>은우</t>
+  </si>
+  <si>
     <t>인턴장 2.5%</t>
   </si>
   <si>
-    <t>번데기(시급)</t>
+    <t>리윤</t>
   </si>
   <si>
-    <t>게스트</t>
+    <t>선희</t>
   </si>
   <si>
-    <t>퇴출</t>
+    <t>웨아터</t>
+  </si>
+  <si>
+    <t>서니</t>
+  </si>
+  <si>
+    <t>쩔밍</t>
+  </si>
+  <si>
+    <t>애벌레</t>
+  </si>
+  <si>
+    <t>강소지</t>
+  </si>
+  <si>
+    <t>블라인드퇴출</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>YB</t>
   </si>
   <si>
     <t>지두두</t>
@@ -440,34 +341,13 @@
     <t>으냉이</t>
   </si>
   <si>
-    <t>선희</t>
-  </si>
-  <si>
     <t>빵지니</t>
-  </si>
-  <si>
-    <t>차돈</t>
-  </si>
-  <si>
-    <t>섭이</t>
-  </si>
-  <si>
-    <t>웨이터</t>
-  </si>
-  <si>
-    <t>김푸</t>
-  </si>
-  <si>
-    <t>시급(7만원)</t>
   </si>
   <si>
     <t>꺼니</t>
   </si>
   <si>
-    <t>박하악</t>
-  </si>
-  <si>
-    <t>애벌레</t>
+    <t>김푸</t>
   </si>
   <si>
     <t>총장대행</t>
@@ -476,106 +356,102 @@
     <t>오메킴</t>
   </si>
   <si>
-    <t>체험인턴</t>
-  </si>
-  <si>
-    <t>설이</t>
-  </si>
-  <si>
     <t>참가자</t>
   </si>
   <si>
     <t>지학호</t>
   </si>
   <si>
-    <t>고도준</t>
+    <t>승나무</t>
   </si>
   <si>
-    <t>웨아터</t>
+    <t>하랑짱</t>
   </si>
   <si>
-    <t>박성진</t>
+    <t>윤아현</t>
   </si>
   <si>
-    <t>시급(6만원)</t>
+    <t>율무</t>
   </si>
   <si>
-    <t>승나무</t>
+    <t>채리나</t>
   </si>
   <si>
     <t>김도준</t>
   </si>
   <si>
-    <t>블라인드퇴출</t>
+    <t>하쥬빈</t>
   </si>
   <si>
-    <t>기준일</t>
+    <t>직급전(11.5)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>1회차(11.11)</t>
   </si>
   <si>
-    <t>+1 ▲</t>
+    <t>2회차(11.17)</t>
   </si>
   <si>
-    <t>-1 ▼</t>
+    <t>3회차(11.21)</t>
   </si>
   <si>
-    <t>+4 ▲</t>
+    <t>4회차(11.26)</t>
   </si>
   <si>
-    <t>진입</t>
+    <t>5회차(11.28)</t>
   </si>
   <si>
-    <t>113일, 159일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>순위</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>D+440일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>스트리머</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>D+423일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>누적기여도</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>D+180일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>변동사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>D+192일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>지연</t>
   </si>
   <si>
-    <t>D+113일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>28</t>
   </si>
   <si>
-    <t>D+134일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>29</t>
   </si>
   <si>
-    <t>D+75일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>30</t>
   </si>
   <si>
-    <t>D+68일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>31</t>
   </si>
   <si>
-    <t>D+15일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,7 +464,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -620,7 +495,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
@@ -641,61 +540,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1266FF"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.15"/>
-      <color rgb="FF1266FF"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9.15"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1DDB16"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,12 +600,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA566FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1019,120 +859,83 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1146,203 +949,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="AutoShape 2" descr="트위터 금메달 이모지">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541ADF07-83A4-5999-C4B3-6A4267317FFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9763125" y="476250"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFC248A-327A-6A42-7DE9-94A1523DACFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="714375"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2052" name="AutoShape 4" descr="트위터 은메달 이모지">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FE4129-135E-3F10-44EA-297E4A9D1D4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9763125" y="714375"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2054" name="AutoShape 6" descr="트위터 동메달 이모지">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC287368-9723-7B8F-AC95-C346EEE391FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9763125" y="1104900"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,846 +1149,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517C00E-3B9B-459B-8729-C0CC0C944FC6}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="B2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="23">
+        <v>18459454</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="B3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="27">
+        <v>15427501</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="B4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="31">
+        <v>14847704</v>
+      </c>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="B5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="35">
+        <v>14768277</v>
+      </c>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="B6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="35">
+        <v>14034989</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="C2" s="22">
-        <v>19091416</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="B7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="35">
+        <v>12942724</v>
+      </c>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="B8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="35">
+        <v>12185151</v>
+      </c>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="C3" s="25">
-        <v>15427501</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="44" t="s">
+      <c r="B9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="35">
+        <v>11512806</v>
+      </c>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="B10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="35">
+        <v>11456411</v>
+      </c>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="C4" s="28">
-        <v>14847704</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="B11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="35">
+        <v>8436657</v>
+      </c>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="35">
+        <v>7915239</v>
+      </c>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="C5" s="31">
-        <v>14768277</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="B13" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="35">
+        <v>7838874</v>
+      </c>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="B14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="35">
+        <v>6454586</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="C6" s="31">
-        <v>14034989</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="B15" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="35">
+        <v>6364013</v>
+      </c>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="35">
+        <v>5540713</v>
+      </c>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="C7" s="31">
-        <v>12942724</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="48" t="s">
+      <c r="B17" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="35">
+        <v>4562135</v>
+      </c>
+      <c r="D17" s="36"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30" t="s">
+      <c r="B18" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="35">
+        <v>2989184</v>
+      </c>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="C8" s="31">
-        <v>12185151</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="48" t="s">
+      <c r="B19" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2854789</v>
+      </c>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="B20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2502755</v>
+      </c>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="C9" s="31">
-        <v>11512806</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="48" t="s">
+      <c r="B21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2329750</v>
+      </c>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="B22" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2280444</v>
+      </c>
+      <c r="D22" s="36"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="C10" s="31">
-        <v>11456411</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="48" t="s">
+      <c r="B23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1830516</v>
+      </c>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="F10" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="B24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="35">
+        <v>1648474</v>
+      </c>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="C11" s="34">
-        <v>8693716</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="49" t="s">
+      <c r="B25" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="35">
+        <v>1529298</v>
+      </c>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="B26" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="35">
+        <v>1400130</v>
+      </c>
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="C12" s="31">
-        <v>7915239</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="B27" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1045272</v>
+      </c>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
         <v>27</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="31">
-        <v>7838874</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="31">
-        <v>6454586</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="31">
-        <v>6364013</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="48" t="s">
+      <c r="B28" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="35">
+        <v>974340</v>
+      </c>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="35">
+        <v>916333</v>
+      </c>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="35">
+        <v>691297</v>
+      </c>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="35">
+        <v>609497</v>
+      </c>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="35">
+        <v>498141</v>
+      </c>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="B33" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="35">
+        <v>447343</v>
+      </c>
+      <c r="D33" s="36"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
         <v>33</v>
       </c>
-      <c r="C16" s="34">
-        <v>6049955</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="31">
-        <v>4562135</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="34">
-        <v>3101895</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="49" t="s">
+      <c r="B34" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="35">
+        <v>408299</v>
+      </c>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="35">
+        <v>342029</v>
+      </c>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="35">
+        <v>258402</v>
+      </c>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="35">
+        <v>254051</v>
+      </c>
+      <c r="D37" s="38"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="35">
+        <v>191849</v>
+      </c>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
-        <v>18</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="34">
-        <v>2947177</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
-        <v>19</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="31">
-        <v>2502755</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="34">
-        <v>2363444</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
-        <v>21</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="31">
-        <v>2329750</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="31">
-        <v>1830516</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="31">
-        <v>1648474</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
-        <v>24</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1572657</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
-        <v>25</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="31">
-        <v>1400130</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47">
-        <v>26</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="34">
-        <v>1261608</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
-        <v>27</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="31">
-        <v>1045272</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47">
-        <v>28</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="31">
-        <v>916333</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
-        <v>29</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="31">
-        <v>691297</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47">
-        <v>30</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="34">
-        <v>658302</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47">
-        <v>31</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="31">
-        <v>609497</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47">
-        <v>32</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="31">
-        <v>498141</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
-        <v>33</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="31">
-        <v>447343</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47">
-        <v>34</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="31">
-        <v>408299</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
-        <v>35</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="31">
-        <v>258402</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
-        <v>36</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="31">
-        <v>254051</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
-        <v>37</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="31">
-        <v>191849</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47">
-        <v>38</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="34">
-        <v>36115</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47">
-        <v>39</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="34">
-        <v>17784</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50">
-        <v>40</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="52">
+      <c r="B39" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="41">
         <v>11813</v>
       </c>
-      <c r="D41" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2391,7 +1644,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B2" sqref="B2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,34 +1658,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2440,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D2" s="10">
         <v>591851</v>
@@ -2473,10 +1726,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10">
         <v>1141001</v>
@@ -2506,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10">
         <v>660862</v>
@@ -2539,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10">
         <v>357662</v>
@@ -2572,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10">
         <v>681469</v>
@@ -2605,10 +1858,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10">
         <v>421701</v>
@@ -2638,10 +1891,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D8" s="10">
         <v>345252</v>
@@ -2671,10 +1924,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -2704,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -2737,10 +1990,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>53316</v>
@@ -2770,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10">
         <v>482687</v>
@@ -2803,10 +2056,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10">
         <v>327703</v>
@@ -2836,10 +2089,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -2869,10 +2122,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D15" s="10">
         <v>323323</v>
@@ -2902,10 +2155,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -2935,10 +2188,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D17" s="10">
         <v>165031</v>
@@ -2968,10 +2221,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D18" s="10">
         <v>92074</v>
@@ -3001,10 +2254,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D19" s="10">
         <v>75552</v>
@@ -3034,10 +2287,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D20" s="10">
         <v>39535</v>
@@ -3067,10 +2320,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -3100,10 +2353,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -3133,10 +2386,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D23" s="10">
         <v>10623</v>
@@ -3162,6 +2415,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J23">
+    <sortCondition descending="1" ref="J2:J23"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3181,36 +2437,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3218,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D2" s="10">
         <v>1244049</v>
@@ -3250,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -3282,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D4" s="10">
         <v>1011206</v>
@@ -3314,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10">
         <v>395677</v>
@@ -3346,10 +2602,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>394952</v>
@@ -3378,10 +2634,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10">
         <v>231094</v>
@@ -3410,10 +2666,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -3442,10 +2698,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9" s="10">
         <v>475313</v>
@@ -3474,10 +2730,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>111111</v>
@@ -3506,10 +2762,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D11" s="10">
         <v>175886</v>
@@ -3538,10 +2794,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -3570,10 +2826,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>100000</v>
@@ -3602,10 +2858,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10">
         <v>65317</v>
@@ -3634,10 +2890,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D15" s="10">
         <v>368410</v>
@@ -3666,10 +2922,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -3698,10 +2954,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -3730,10 +2986,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -3762,10 +3018,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D19" s="10">
         <v>143207</v>
@@ -3794,10 +3050,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -3826,10 +3082,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -3858,10 +3114,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -3890,10 +3146,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -3922,10 +3178,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -3954,10 +3210,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
@@ -3986,10 +3242,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -4018,10 +3274,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="D27" s="10">
         <v>0</v>
@@ -4055,45 +3311,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4101,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D2" s="16">
         <v>925074</v>
@@ -4133,10 +3387,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D3" s="16">
         <v>794969</v>
@@ -4165,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D4" s="16">
         <v>960781</v>
@@ -4197,10 +3451,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D5" s="16">
         <v>508450</v>
@@ -4229,10 +3483,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D6" s="16">
         <v>353927</v>
@@ -4261,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D7" s="16">
         <v>243413</v>
@@ -4293,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D8" s="16">
         <v>292790</v>
@@ -4325,10 +3579,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D9" s="16">
         <v>153723</v>
@@ -4357,10 +3611,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
@@ -4389,10 +3643,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D11" s="16">
         <v>217561</v>
@@ -4421,10 +3675,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D12" s="16">
         <v>216364</v>
@@ -4453,10 +3707,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D13" s="16">
         <v>0</v>
@@ -4485,10 +3739,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D14" s="16">
         <v>0</v>
@@ -4517,10 +3771,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D15" s="16">
         <v>0</v>
@@ -4549,10 +3803,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D16" s="16">
         <v>165289</v>
@@ -4581,10 +3835,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D17" s="16">
         <v>61834</v>
@@ -4613,10 +3867,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D18" s="16">
         <v>0</v>
@@ -4645,10 +3899,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" s="16">
         <v>99696</v>
@@ -4677,10 +3931,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D20" s="16">
         <v>11200</v>
@@ -4709,10 +3963,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -4741,10 +3995,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D22" s="16">
         <v>18405</v>
@@ -4773,10 +4027,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D23" s="16">
         <v>11813</v>
@@ -4803,30 +4057,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
-        <v>46016</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4850,48 +4080,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4920,16 +4150,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3">
         <v>2015765</v>
@@ -4955,16 +4185,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3">
         <v>925074</v>
@@ -4990,13 +4220,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5025,16 +4255,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3">
         <v>1244049</v>
@@ -5060,16 +4290,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>848954</v>
@@ -5095,16 +4325,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
         <v>1153003</v>
@@ -5130,16 +4360,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3">
         <v>969739</v>
@@ -5165,16 +4395,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>1008708</v>
@@ -5200,16 +4430,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3">
         <v>591851</v>
@@ -5235,13 +4465,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -5270,16 +4500,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -5305,16 +4535,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3">
         <v>863720</v>
@@ -5340,16 +4570,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3">
         <v>1383340</v>
@@ -5375,16 +4605,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -5410,16 +4640,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3">
         <v>909238</v>
@@ -5445,16 +4675,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3">
         <v>567126</v>
@@ -5480,16 +4710,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3">
         <v>797378</v>
@@ -5515,16 +4745,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E20" s="3">
         <v>801888</v>
@@ -5550,16 +4780,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -5585,16 +4815,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3">
         <v>794969</v>
@@ -5620,16 +4850,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -5655,16 +4885,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3">
         <v>1000066</v>
@@ -5690,16 +4920,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3">
         <v>486050</v>
@@ -5725,16 +4955,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3">
         <v>713545</v>
@@ -5760,16 +4990,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3">
         <v>388176</v>
@@ -5795,16 +5025,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3">
         <v>1010462</v>
@@ -5830,16 +5060,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>851192</v>
@@ -5865,16 +5095,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3">
         <v>1141001</v>
@@ -5900,16 +5130,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3">
         <v>1226169</v>
@@ -5935,16 +5165,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E32" s="3">
         <v>641703</v>
@@ -5970,16 +5200,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3">
         <v>794394</v>
@@ -6005,16 +5235,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E34" s="3">
         <v>1011206</v>
@@ -6040,16 +5270,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3">
         <v>1067104</v>
@@ -6075,16 +5305,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E36" s="3">
         <v>1855686</v>
@@ -6110,16 +5340,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -6145,16 +5375,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E38" s="3">
         <v>960781</v>
@@ -6180,16 +5410,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E39" s="3">
         <v>650239</v>
@@ -6215,16 +5445,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E40" s="3">
         <v>812036</v>
@@ -6250,16 +5480,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E41" s="3">
         <v>513851</v>
@@ -6285,16 +5515,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3">
         <v>186355</v>
@@ -6320,16 +5550,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E43" s="3">
         <v>613269</v>
@@ -6355,16 +5585,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E44" s="3">
         <v>1638477</v>
@@ -6390,16 +5620,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E45" s="3">
         <v>672620</v>
@@ -6425,16 +5655,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E46" s="3">
         <v>596340</v>
@@ -6460,16 +5690,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3">
         <v>660862</v>
@@ -6495,16 +5725,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E48" s="3">
         <v>244949</v>
@@ -6530,16 +5760,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3">
         <v>395677</v>
@@ -6565,16 +5795,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E50" s="3">
         <v>357662</v>
@@ -6600,16 +5830,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3">
         <v>334037</v>
@@ -6635,16 +5865,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E52" s="3">
         <v>846054</v>
@@ -6670,16 +5900,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E53" s="3">
         <v>560000</v>
@@ -6705,16 +5935,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E54" s="3">
         <v>593840</v>
@@ -6740,16 +5970,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E55" s="3">
         <v>681469</v>
@@ -6775,16 +6005,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E56" s="3">
         <v>793942</v>
@@ -6810,16 +6040,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E57" s="3">
         <v>421701</v>
@@ -6845,16 +6075,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E58" s="3">
         <v>394952</v>
@@ -6880,16 +6110,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B59" s="2">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E59" s="3">
         <v>446051</v>
@@ -6915,16 +6145,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E60" s="3">
         <v>345252</v>
@@ -6950,16 +6180,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E61" s="3">
         <v>831350</v>
@@ -6985,16 +6215,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E62" s="3">
         <v>508450</v>
@@ -7020,16 +6250,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B63" s="2">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -7055,16 +6285,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -7090,16 +6320,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B65" s="2">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E65" s="3">
         <v>248746</v>
@@ -7125,16 +6355,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B66" s="2">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E66" s="3">
         <v>231094</v>
@@ -7160,16 +6390,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B67" s="2">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -7195,16 +6425,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B68" s="2">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E68" s="3">
         <v>268297</v>
@@ -7230,16 +6460,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B69" s="2">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E69" s="3">
         <v>64442</v>
@@ -7265,16 +6495,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -7300,16 +6530,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E71" s="3">
         <v>474258</v>
@@ -7335,16 +6565,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B72" s="2">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E72" s="3">
         <v>337470</v>
@@ -7370,16 +6600,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B73" s="2">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>
@@ -7405,16 +6635,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E74" s="3">
         <v>0</v>
@@ -7440,16 +6670,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E75" s="3">
         <v>370881</v>
@@ -7475,16 +6705,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B76" s="2">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E76" s="3">
         <v>381587</v>
@@ -7510,16 +6740,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B77" s="2">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
@@ -7545,16 +6775,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B78" s="2">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
@@ -7580,16 +6810,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B79" s="2">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E79" s="3">
         <v>527723</v>
@@ -7615,16 +6845,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B80" s="2">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E80" s="3">
         <v>228482</v>
@@ -7650,16 +6880,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E81" s="3">
         <v>53316</v>
@@ -7685,16 +6915,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B82" s="2">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E82" s="3">
         <v>353927</v>
@@ -7720,16 +6950,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E83" s="3">
         <v>482687</v>
@@ -7755,16 +6985,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B84" s="2">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E84" s="3">
         <v>475313</v>
@@ -7790,16 +7020,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B85" s="2">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E85" s="3">
         <v>96384</v>
@@ -7825,16 +7055,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B86" s="2">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E86" s="3">
         <v>201927</v>
@@ -7860,16 +7090,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B87" s="2">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E87" s="3">
         <v>121158</v>
@@ -7895,16 +7125,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B88" s="2">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88" s="3">
         <v>283163</v>
@@ -7930,16 +7160,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B89" s="2">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E89" s="3">
         <v>243413</v>
@@ -7965,16 +7195,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B90" s="2">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E90" s="3">
         <v>292790</v>
@@ -8000,16 +7230,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B91" s="2">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E91" s="3">
         <v>268103</v>
@@ -8035,16 +7265,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E92" s="3">
         <v>327703</v>
@@ -8070,16 +7300,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B93" s="2">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E93" s="3">
         <v>245802</v>
@@ -8105,16 +7335,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B94" s="2">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -8140,16 +7370,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B95" s="2">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E95" s="3">
         <v>288846</v>
@@ -8175,16 +7405,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B96" s="2">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E96" s="3">
         <v>111111</v>
@@ -8210,16 +7440,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B97" s="2">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E97" s="3">
         <v>201396</v>
@@ -8245,16 +7475,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B98" s="2">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
@@ -8280,16 +7510,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B99" s="2">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E99" s="3">
         <v>455663</v>
@@ -8315,16 +7545,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8350,16 +7580,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B101" s="2">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E101" s="3">
         <v>153723</v>
@@ -8385,16 +7615,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B102" s="2">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E102" s="3">
         <v>175886</v>
@@ -8420,16 +7650,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B103" s="2">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D103" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E103" s="3">
         <v>292833</v>
@@ -8455,16 +7685,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B104" s="2">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E104" s="3">
         <v>53703</v>
@@ -8490,16 +7720,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B105" s="2">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E105" s="3">
         <v>0</v>
@@ -8525,16 +7755,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B106" s="2">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
@@ -8560,16 +7790,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B107" s="2">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E107" s="3">
         <v>93620</v>
@@ -8595,16 +7825,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B108" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E108" s="3">
         <v>175422</v>
@@ -8630,16 +7860,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B109" s="2">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
@@ -8665,16 +7895,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B110" s="2">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E110" s="3">
         <v>117641</v>
@@ -8700,16 +7930,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B111" s="2">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E111" s="3">
         <v>100259</v>
@@ -8735,16 +7965,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B112" s="2">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E112" s="3">
         <v>217561</v>
@@ -8770,16 +8000,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B113" s="2">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E113" s="3">
         <v>154970</v>
@@ -8805,16 +8035,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B114" s="2">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
@@ -8840,16 +8070,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B115" s="2">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E115" s="3">
         <v>216364</v>
@@ -8875,16 +8105,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B116" s="2">
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E116" s="3">
         <v>100000</v>
@@ -8910,16 +8140,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B117" s="2">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E117" s="3">
         <v>52365</v>
@@ -8945,16 +8175,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B118" s="2">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
@@ -8980,16 +8210,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B119" s="2">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E119" s="3">
         <v>0</v>
@@ -9015,16 +8245,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E120" s="3">
         <v>0</v>
@@ -9050,16 +8280,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B121" s="2">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D121" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E121" s="3">
         <v>440021</v>
@@ -9085,16 +8315,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B122" s="2">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
@@ -9120,16 +8350,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B123" s="2">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E123" s="3">
         <v>65317</v>
@@ -9155,16 +8385,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B124" s="2">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E124" s="3">
         <v>368410</v>
@@ -9190,16 +8420,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B125" s="2">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D125" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E125" s="3">
         <v>0</v>
@@ -9225,16 +8455,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B126" s="2">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D126" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E126" s="3">
         <v>34213</v>
@@ -9260,16 +8490,16 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B127" s="2">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E127" s="3">
         <v>341917</v>
@@ -9295,16 +8525,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B128" s="2">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D128" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
@@ -9330,16 +8560,16 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B129" s="2">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E129" s="3">
         <v>134829</v>
@@ -9365,16 +8595,16 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B130" s="2">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
@@ -9400,16 +8630,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B131" s="2">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E131" s="3">
         <v>323323</v>
@@ -9435,16 +8665,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B132" s="2">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
@@ -9470,16 +8700,16 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B133" s="2">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
@@ -9505,16 +8735,16 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B134" s="2">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
@@ -9540,16 +8770,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
@@ -9575,16 +8805,16 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B136" s="2">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
@@ -9610,16 +8840,16 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B137" s="2">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
@@ -9645,16 +8875,16 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B138" s="2">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E138" s="3">
         <v>132561</v>
@@ -9680,16 +8910,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B139" s="2">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E139" s="3">
         <v>254513</v>
@@ -9715,16 +8945,16 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B140" s="2">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
@@ -9750,16 +8980,16 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B141" s="2">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E141" s="3">
         <v>0</v>
@@ -9785,16 +9015,16 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B142" s="2">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
@@ -9820,16 +9050,16 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B143" s="2">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E143" s="3">
         <v>0</v>
@@ -9855,16 +9085,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B144" s="2">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
@@ -9890,16 +9120,16 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B145" s="2">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E145" s="3">
         <v>165289</v>
@@ -9925,16 +9155,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B146" s="2">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E146" s="3">
         <v>165031</v>
@@ -9960,16 +9190,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B147" s="2">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
@@ -9995,16 +9225,16 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B148" s="2">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D148" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E148" s="3">
         <v>61834</v>
@@ -10030,16 +9260,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E149" s="3">
         <v>143207</v>
@@ -10065,16 +9295,16 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B150" s="2">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
@@ -10100,16 +9330,16 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B151" s="2">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E151" s="3">
         <v>116032</v>
@@ -10135,16 +9365,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B152" s="2">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
@@ -10170,16 +9400,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B153" s="2">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E153" s="3">
         <v>99696</v>
@@ -10205,16 +9435,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B154" s="2">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D154" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E154" s="3">
         <v>92074</v>
@@ -10240,16 +9470,16 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B155" s="2">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D155" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
@@ -10275,16 +9505,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B156" s="2">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
@@ -10310,16 +9540,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B157" s="2">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D157" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
@@ -10345,16 +9575,16 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B158" s="2">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
@@ -10380,16 +9610,16 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B159" s="2">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D159" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
@@ -10415,16 +9645,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B160" s="2">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E160" s="3">
         <v>75552</v>
@@ -10450,16 +9680,16 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B161" s="2">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D161" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E161" s="3">
         <v>72642</v>
@@ -10485,16 +9715,16 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B162" s="2">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D162" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
@@ -10520,16 +9750,16 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B163" s="2">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E163" s="3">
         <v>11200</v>
@@ -10555,16 +9785,16 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B164" s="2">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D164" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E164" s="3">
         <v>0</v>
@@ -10590,16 +9820,16 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B165" s="2">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D165" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E165" s="3">
         <v>0</v>
@@ -10625,16 +9855,16 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B166" s="2">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="E166" s="3">
         <v>0</v>
@@ -10660,16 +9890,16 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B167" s="2">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D167" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E167" s="3">
         <v>55575</v>
@@ -10695,16 +9925,16 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B168" s="2">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D168" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E168" s="3">
         <v>0</v>
@@ -10730,16 +9960,16 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B169" s="2">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D169" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E169" s="3">
         <v>0</v>
@@ -10765,16 +9995,16 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B170" s="2">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D170" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E170" s="3">
         <v>0</v>
@@ -10800,16 +10030,16 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B171" s="2">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D171" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E171" s="3">
         <v>0</v>
@@ -10835,16 +10065,16 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B172" s="2">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D172" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E172" s="3">
         <v>0</v>
@@ -10870,16 +10100,16 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B173" s="2">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D173" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E173" s="3">
         <v>0</v>
@@ -10905,16 +10135,16 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B174" s="2">
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E174" s="3">
         <v>39535</v>
@@ -10940,16 +10170,16 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B175" s="2">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D175" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
@@ -10975,16 +10205,16 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B176" s="2">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D176" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
@@ -11010,16 +10240,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B177" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D177" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
@@ -11045,16 +10275,16 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B178" s="2">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D178" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
@@ -11080,16 +10310,16 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B179" s="2">
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D179" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E179" s="3">
         <v>0</v>
@@ -11115,16 +10345,16 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B180" s="2">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D180" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E180" s="3">
         <v>0</v>
@@ -11150,16 +10380,16 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B181" s="2">
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D181" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E181" s="3">
         <v>11369</v>
@@ -11185,16 +10415,16 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B182" s="2">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E182" s="3">
         <v>28073</v>
@@ -11220,16 +10450,16 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B183" s="2">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D183" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="E183" s="3">
         <v>0</v>
@@ -11255,16 +10485,16 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B184" s="2">
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D184" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E184" s="3">
         <v>18405</v>
@@ -11290,16 +10520,16 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B185" s="2">
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D185" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E185" s="3">
         <v>0</v>
@@ -11325,16 +10555,16 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B186" s="2">
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D186" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E186" s="3">
         <v>11813</v>
@@ -11360,16 +10590,16 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B187" s="2">
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D187" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E187" s="3">
         <v>10623</v>
@@ -11395,16 +10625,16 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B188" s="2">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D188" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E188" s="3">
         <v>0</v>
@@ -11430,16 +10660,16 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B189" s="2">
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D189" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E189" s="3">
         <v>0</v>
@@ -11465,16 +10695,16 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B190" s="2">
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D190" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E190" s="3">
         <v>0</v>
@@ -11500,16 +10730,16 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B191" s="2">
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D191" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E191" s="3">
         <v>8322</v>
@@ -11547,7 +10777,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11558,36 +10788,36 @@
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11595,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>22</v>
@@ -11627,10 +10857,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7">
         <v>1008708</v>
@@ -11659,10 +10889,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -11692,10 +10922,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
         <v>513851</v>
@@ -11724,10 +10954,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
         <v>334037</v>
@@ -11756,10 +10986,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
         <v>846054</v>
@@ -11788,10 +11018,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
         <v>248746</v>
@@ -11820,10 +11050,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7">
         <v>381587</v>
@@ -11852,10 +11082,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
         <v>228482</v>
@@ -11884,10 +11114,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
         <v>201927</v>
@@ -11916,10 +11146,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
         <v>245802</v>
@@ -11948,10 +11178,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
         <v>117641</v>
@@ -11980,10 +11210,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
         <v>132561</v>
@@ -12018,7 +11248,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12030,36 +11260,36 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12067,10 +11297,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>848954</v>
@@ -12091,7 +11321,7 @@
         <v>414922</v>
       </c>
       <c r="J2" s="10">
-        <f t="shared" ref="J2:J18" si="0">SUM(D2:I2)</f>
+        <f>SUM(D2:I2)</f>
         <v>3557885</v>
       </c>
     </row>
@@ -12103,7 +11333,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10">
         <v>1004444</v>
@@ -12124,7 +11354,7 @@
         <v>230683</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J18" si="0">SUM(D3:I3)</f>
         <v>3070017</v>
       </c>
     </row>
@@ -12133,10 +11363,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10">
         <v>1383340</v>
@@ -12166,10 +11396,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10">
         <v>797378</v>
@@ -12199,10 +11429,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -12232,10 +11462,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10">
         <v>388176</v>
@@ -12265,10 +11495,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10">
         <v>1226169</v>
@@ -12298,10 +11528,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D9" s="10">
         <v>244949</v>
@@ -12331,10 +11561,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -12364,10 +11594,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="D11" s="10">
         <v>283163</v>
@@ -12397,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10">
         <v>268103</v>
@@ -12430,10 +11660,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -12463,10 +11693,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D14" s="10">
         <v>93620</v>
@@ -12496,10 +11726,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -12529,10 +11759,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -12562,10 +11792,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10">
         <v>72642</v>
@@ -12595,10 +11825,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -12634,7 +11864,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J2" sqref="J2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12644,36 +11874,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12681,10 +11911,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10">
         <v>2015765</v>
@@ -12705,7 +11935,7 @@
         <v>448014</v>
       </c>
       <c r="J2" s="10">
-        <f t="shared" ref="J2:J20" si="0">SUM(D2:I2)</f>
+        <f>SUM(D2:I2)</f>
         <v>4342396</v>
       </c>
     </row>
@@ -12717,7 +11947,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10">
         <v>2402902</v>
@@ -12738,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J20" si="0">SUM(D3:I3)</f>
         <v>3687480</v>
       </c>
     </row>
@@ -12747,10 +11977,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D4" s="10">
         <v>1153003</v>
@@ -12780,10 +12010,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D5" s="10">
         <v>1067104</v>
@@ -12813,10 +12043,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10">
         <v>1855686</v>
@@ -12846,10 +12076,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D7" s="10">
         <v>812036</v>
@@ -12879,10 +12109,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10">
         <v>1638477</v>
@@ -12912,10 +12142,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10">
         <v>446051</v>
@@ -12945,10 +12175,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -12978,10 +12208,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10">
         <v>527723</v>
@@ -13011,10 +12241,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10">
         <v>288846</v>
@@ -13044,10 +12274,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D13" s="10">
         <v>455663</v>
@@ -13077,10 +12307,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10">
         <v>440021</v>
@@ -13110,10 +12340,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -13143,10 +12373,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10">
         <v>341917</v>
@@ -13176,10 +12406,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -13209,10 +12439,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -13242,10 +12472,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -13275,10 +12505,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -13314,7 +12544,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J2" sqref="J2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13324,36 +12554,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13361,10 +12591,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10">
         <v>567126</v>
@@ -13385,7 +12615,7 @@
         <v>212378</v>
       </c>
       <c r="J2" s="10">
-        <f t="shared" ref="J2:J15" si="0">SUM(D2:I2)</f>
+        <f>SUM(D2:I2)</f>
         <v>2750614</v>
       </c>
     </row>
@@ -13394,10 +12624,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10">
         <v>641703</v>
@@ -13418,7 +12648,7 @@
         <v>380703</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J15" si="0">SUM(D3:I3)</f>
         <v>2090551</v>
       </c>
     </row>
@@ -13427,10 +12657,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10">
         <v>186355</v>
@@ -13460,10 +12690,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10">
         <v>64442</v>
@@ -13493,10 +12723,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10">
         <v>474258</v>
@@ -13526,10 +12756,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D7" s="10">
         <v>337470</v>
@@ -13559,10 +12789,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10">
         <v>154970</v>
@@ -13592,10 +12822,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -13625,10 +12855,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D10" s="10">
         <v>134829</v>
@@ -13658,10 +12888,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -13691,10 +12921,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -13724,10 +12954,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -13757,10 +12987,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -13790,10 +13020,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -13841,36 +13071,36 @@
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13878,10 +13108,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>969739</v>
@@ -13902,7 +13132,7 @@
         <v>522076</v>
       </c>
       <c r="J2" s="18">
-        <f t="shared" ref="J2:J18" si="0">SUM(D2:I2)</f>
+        <f>SUM(D2:I2)</f>
         <v>3307868</v>
       </c>
     </row>
@@ -13911,10 +13141,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10">
         <v>909238</v>
@@ -13935,7 +13165,7 @@
         <v>671288</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J18" si="0">SUM(D3:I3)</f>
         <v>2800254</v>
       </c>
     </row>
@@ -13944,10 +13174,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10">
         <v>801888</v>
@@ -13977,10 +13207,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10">
         <v>486050</v>
@@ -14010,10 +13240,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -14043,10 +13273,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10">
         <v>593840</v>
@@ -14076,10 +13306,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10">
         <v>268297</v>
@@ -14109,10 +13339,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10">
         <v>96384</v>
@@ -14142,10 +13372,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -14175,10 +13405,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D11" s="10">
         <v>53703</v>
@@ -14208,10 +13438,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -14241,10 +13471,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D13" s="10">
         <v>34213</v>
@@ -14274,10 +13504,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -14307,10 +13537,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -14340,10 +13570,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -14373,10 +13603,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D17" s="10">
         <v>11369</v>
@@ -14406,10 +13636,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D18" s="10">
         <v>28073</v>
@@ -14457,36 +13687,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14494,10 +13724,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10">
         <v>1000066</v>
@@ -14527,10 +13757,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10">
         <v>1010462</v>
@@ -14560,10 +13790,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10">
         <v>794394</v>
@@ -14593,10 +13823,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D5" s="10">
         <v>613269</v>
@@ -14626,10 +13856,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10">
         <v>672620</v>
@@ -14659,10 +13889,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>560000</v>
@@ -14692,10 +13922,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10">
         <v>831350</v>
@@ -14725,10 +13955,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -14758,10 +13988,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -14791,10 +14021,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -14824,10 +14054,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10">
         <v>100259</v>
@@ -14857,10 +14087,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10">
         <v>52365</v>
@@ -14890,10 +14120,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -14923,10 +14153,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10">
         <v>254513</v>
@@ -14956,10 +14186,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -14989,10 +14219,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D17" s="10">
         <v>55575</v>
@@ -15022,10 +14252,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -15055,10 +14285,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -15088,10 +14318,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D20" s="10">
         <v>8322</v>
@@ -15117,6 +14347,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J20">
+    <sortCondition descending="1" ref="J2:J20"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15127,7 +14360,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15137,36 +14370,36 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -15174,10 +14407,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D2" s="10">
         <v>863720</v>
@@ -15207,10 +14440,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -15240,10 +14473,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D4" s="10">
         <v>713545</v>
@@ -15273,10 +14506,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10">
         <v>851192</v>
@@ -15306,10 +14539,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10">
         <v>650239</v>
@@ -15339,10 +14572,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10">
         <v>596340</v>
@@ -15372,10 +14605,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10">
         <v>793942</v>
@@ -15405,10 +14638,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -15438,10 +14671,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10">
         <v>370881</v>
@@ -15471,10 +14704,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10">
         <v>121158</v>
@@ -15504,10 +14737,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D12" s="10">
         <v>201396</v>
@@ -15537,10 +14770,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10">
         <v>292833</v>
@@ -15570,10 +14803,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10">
         <v>175422</v>
@@ -15603,10 +14836,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -15631,15 +14864,15 @@
         <v>504970</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>102</v>
+      <c r="B16" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -15669,10 +14902,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -15702,10 +14935,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10">
         <v>116032</v>
@@ -15735,10 +14968,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -15768,10 +15001,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -15801,10 +15034,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -15829,15 +15062,15 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>135</v>
+      <c r="B22" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -15862,10 +15095,10 @@
         <v>40434</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="11" t="str">
         <f t="shared" ref="D24:J24" ca="1" si="1">SUM(D2:D24)</f>
         <v/>
@@ -15901,6 +15134,5 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>
--- a/docs/YXL_통합.xlsx
+++ b/docs/YXL_통합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjana\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409CEEE9-159E-4525-A788-AB2FFDDC76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F85AF-46F8-4774-8C7C-1F709FD490B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,11 +985,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,6 +1087,14 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1108,6 +1111,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2067" name="AutoShape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F93122F-BBA3-C35B-B5E0-B24986847896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="476250"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2068" name="AutoShape 20" descr="트위터 금메달 이모지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89A3FD-1BAA-2E4C-9B2A-F33359C77859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="476250"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2069" name="AutoShape 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B918720-5826-D9D1-903F-D08861545FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="714375"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2070" name="AutoShape 22" descr="트위터 은메달 이모지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5A73FA-9687-C64B-1639-92318F78035F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="714375"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2071" name="AutoShape 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A453B657-8DB0-3CEF-6CA0-93BF6F8D476E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1104900"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2072" name="AutoShape 24" descr="트위터 동메달 이모지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA758C6-BAC3-5E06-352C-CE9DB7B2A91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="1104900"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,707 +1604,714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517C00E-3B9B-459B-8729-C0CC0C944FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517C00E-3B9B-459B-8729-C0CC0C944FC6}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>19091416</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>15427501</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>14847704</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <v>14768277</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>14034989</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <v>12942724</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="47" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <v>12185151</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="47" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>11512806</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="47" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <v>11456411</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="47" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="33">
         <v>8693716</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <v>7915239</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="30">
         <v>7838874</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="47" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="30">
         <v>6454586</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="30">
         <v>6364013</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="33">
         <v>6049955</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="30">
         <v>4562135</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="47" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="33">
         <v>3101895</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="48" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+      <c r="A19" s="46">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="33">
         <v>2947177</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="48" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49">
+      <c r="A20" s="46">
         <v>19</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="30">
         <v>2502755</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="47" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
+      <c r="A21" s="46">
         <v>20</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="33">
         <v>2363444</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="48" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49">
+      <c r="A22" s="46">
         <v>21</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="30">
         <v>2329750</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49">
+      <c r="A23" s="46">
         <v>22</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="30">
         <v>1830516</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="47" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49">
+      <c r="A24" s="46">
         <v>23</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="30">
         <v>1648474</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="47" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49">
+      <c r="A25" s="46">
         <v>24</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="33">
         <v>1572657</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49">
+      <c r="A26" s="46">
         <v>25</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="30">
         <v>1400130</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="47" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49">
+      <c r="A27" s="46">
         <v>26</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="33">
         <v>1261608</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49">
+      <c r="A28" s="46">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <v>1045272</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="47" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49">
+      <c r="A29" s="46">
         <v>28</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="30">
         <v>916333</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="47" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49">
+      <c r="A30" s="46">
         <v>29</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="30">
         <v>691297</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="47" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49">
+      <c r="A31" s="46">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="33">
         <v>658302</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="48" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49">
+      <c r="A32" s="46">
         <v>31</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="30">
         <v>609497</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="47" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49">
+      <c r="A33" s="46">
         <v>32</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="30">
         <v>498141</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="47" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49">
+      <c r="A34" s="46">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="30">
         <v>447343</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="47" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49">
+      <c r="A35" s="46">
         <v>34</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="30">
         <v>408299</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="47" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49">
+      <c r="A36" s="46">
         <v>35</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="30">
         <v>258402</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="47" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49">
+      <c r="A37" s="46">
         <v>36</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="30">
         <v>254051</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="47" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49">
+      <c r="A38" s="46">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="30">
         <v>191849</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="47" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49">
+      <c r="A39" s="46">
         <v>38</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="33">
         <v>36115</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="48" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49">
+      <c r="A40" s="46">
         <v>39</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="33">
         <v>17784</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="48" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52">
+      <c r="A41" s="49">
         <v>40</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="51">
         <v>11813</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="53" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2016,7 +2319,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15477,9 +15780,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="11" t="str">
         <f t="shared" ref="D24:J24" ca="1" si="1">SUM(D2:D24)</f>
         <v/>

--- a/docs/YXL_통합.xlsx
+++ b/docs/YXL_통합.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="누적기여도" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="162">
   <si>
     <t>S1</t>
   </si>
@@ -382,47 +382,7 @@
     <t>하쥬빈</t>
   </si>
   <si>
-    <t>순위</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트리머</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적기여도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동사항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>지연</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
   </si>
   <si>
     <t>직급전</t>
@@ -447,6 +407,138 @@
   <si>
     <t>5회차</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>D+441일</t>
+  </si>
+  <si>
+    <t>113일, 159일</t>
+  </si>
+  <si>
+    <t>212일</t>
+  </si>
+  <si>
+    <t>194일</t>
+  </si>
+  <si>
+    <t>241일</t>
+  </si>
+  <si>
+    <t>217일</t>
+  </si>
+  <si>
+    <t>175일</t>
+  </si>
+  <si>
+    <t>77일, 111일</t>
+  </si>
+  <si>
+    <t>110일</t>
+  </si>
+  <si>
+    <t>D+424일</t>
+  </si>
+  <si>
+    <t>280일</t>
+  </si>
+  <si>
+    <t>101일</t>
+  </si>
+  <si>
+    <t>151일</t>
+  </si>
+  <si>
+    <t>D+181일</t>
+  </si>
+  <si>
+    <t>128일</t>
+  </si>
+  <si>
+    <t>D+193일</t>
+  </si>
+  <si>
+    <t>D+168일</t>
+  </si>
+  <si>
+    <t>D+114일</t>
+  </si>
+  <si>
+    <t>105일</t>
+  </si>
+  <si>
+    <t>+1 ▲</t>
+  </si>
+  <si>
+    <t>D+139일</t>
+  </si>
+  <si>
+    <t>-1 ▼</t>
+  </si>
+  <si>
+    <t>42일</t>
+  </si>
+  <si>
+    <t>D+76일</t>
+  </si>
+  <si>
+    <t>73일</t>
+  </si>
+  <si>
+    <t>28일</t>
+  </si>
+  <si>
+    <t>70일</t>
+  </si>
+  <si>
+    <t>D+69일</t>
+  </si>
+  <si>
+    <t>57일, 30일</t>
+  </si>
+  <si>
+    <t>62일</t>
+  </si>
+  <si>
+    <t>24일</t>
+  </si>
+  <si>
+    <t>50일</t>
+  </si>
+  <si>
+    <t>43일</t>
+  </si>
+  <si>
+    <t>52일</t>
+  </si>
+  <si>
+    <t>34일</t>
+  </si>
+  <si>
+    <t>유나연</t>
+  </si>
+  <si>
+    <t>D+16일</t>
+  </si>
+  <si>
+    <t>나래</t>
+  </si>
+  <si>
+    <t>17일</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>누적 기여도 점수</t>
+  </si>
+  <si>
+    <t>근속일수</t>
   </si>
 </sst>
 </file>
@@ -456,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,55 +591,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF1266FF"/>
       <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.15"/>
+      <color rgb="FF1266FF"/>
+      <name val="Noto Sans KR"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.15"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0100FF"/>
       <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans KR"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA566FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,38 +785,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFA566FF"/>
       </left>
       <right style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thick">
         <color rgb="FFA566FF"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thick">
         <color rgb="FFA566FF"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thick">
         <color rgb="FFA566FF"/>
@@ -713,7 +840,7 @@
         <color rgb="FFA566FF"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,43 +849,28 @@
         <color rgb="FFA566FF"/>
       </left>
       <right style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF383B40"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF383B40"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF383B40"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF383B40"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thick">
         <color rgb="FFA566FF"/>
       </right>
       <top style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,10 +879,10 @@
         <color rgb="FFA566FF"/>
       </left>
       <right style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="thick">
         <color rgb="FFA566FF"/>
@@ -779,13 +891,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="thick">
         <color rgb="FFA566FF"/>
@@ -794,13 +906,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thick">
         <color rgb="FFA566FF"/>
       </right>
       <top style="medium">
-        <color rgb="FF383B40"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="thick">
         <color rgb="FFA566FF"/>
@@ -812,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -858,75 +970,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,6 +990,105 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1"/>
@@ -976,6 +1118,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2074" name="AutoShape 26" descr="트위터 금메달 이모지"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="200025"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2076" name="AutoShape 28" descr="트위터 은메달 이모지"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="466725"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2078" name="AutoShape 30" descr="트위터 동메달 이모지"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="857250"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,480 +1462,708 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="26">
+        <v>19316678</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="29">
+        <v>15427501</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="32">
+        <v>14847704</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="35">
+        <v>14768277</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="35">
+        <v>14034989</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="35">
+        <v>12942724</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="35">
+        <v>12185151</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="35">
+        <v>11512806</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="35">
+        <v>11456411</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="38">
+        <v>8877308</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="35">
+        <v>7915239</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="35">
+        <v>7838874</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="35">
+        <v>6454586</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="35">
+        <v>6364013</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="38">
+        <v>6309955</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="C17" s="35">
+        <v>4562135</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="38">
+        <v>3139750</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="38">
+        <v>2986374</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2502755</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2434797</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2329750</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1830516</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1663929</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45">
+        <v>24</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="35">
+        <v>1648474</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="45">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="38">
+        <v>1457870</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>26</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1400130</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="45">
+        <v>27</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="35">
+        <v>1045272</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
         <v>28</v>
       </c>
-      <c r="C2" s="20">
-        <v>18459454</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="24">
-        <v>15427501</v>
-      </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="28">
-        <v>14847704</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="32">
-        <v>14768277</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="B29" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="35">
+        <v>916333</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="38">
+        <v>787265</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="45">
+        <v>30</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="35">
+        <v>691297</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>31</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="35">
+        <v>609497</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
+        <v>32</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="35">
+        <v>498141</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="35">
+        <v>447343</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45">
         <v>34</v>
       </c>
-      <c r="C6" s="32">
-        <v>14034989</v>
-      </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="32">
-        <v>12942724</v>
-      </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="32">
-        <v>12185151</v>
-      </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="32">
-        <v>11512806</v>
-      </c>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="32">
-        <v>11456411</v>
-      </c>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="B35" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="35">
+        <v>408299</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45">
+        <v>35</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="35">
+        <v>258402</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45">
         <v>36</v>
       </c>
-      <c r="C11" s="32">
-        <v>8436657</v>
-      </c>
-      <c r="D11" s="33"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="32">
-        <v>7915239</v>
-      </c>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="32">
-        <v>7838874</v>
-      </c>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="32">
-        <v>6454586</v>
-      </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="32">
-        <v>6364013</v>
-      </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="32">
-        <v>5540713</v>
-      </c>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="32">
-        <v>4562135</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="32">
-        <v>2989184</v>
-      </c>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
-        <v>18</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="32">
-        <v>2854789</v>
-      </c>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
-        <v>19</v>
-      </c>
-      <c r="B20" s="31" t="s">
+      <c r="B37" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="35">
+        <v>254051</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45">
+        <v>37</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="35">
+        <v>191849</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45">
+        <v>38</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="38">
+        <v>136361</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="38">
+        <v>38476</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48">
         <v>40</v>
       </c>
-      <c r="C20" s="32">
-        <v>2502755</v>
-      </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
-        <v>20</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="32">
-        <v>2329750</v>
-      </c>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
-        <v>21</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="32">
-        <v>2280444</v>
-      </c>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
-        <v>22</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="32">
-        <v>1830516</v>
-      </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
-        <v>23</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="32">
-        <v>1648474</v>
-      </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
-        <v>24</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="32">
-        <v>1529298</v>
-      </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
-        <v>25</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="32">
-        <v>1400130</v>
-      </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
-        <v>26</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="32">
-        <v>1045272</v>
-      </c>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
-        <v>27</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="32">
-        <v>974340</v>
-      </c>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="32">
-        <v>916333</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="32">
-        <v>691297</v>
-      </c>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="32">
-        <v>609497</v>
-      </c>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="B41" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="50">
+        <v>11813</v>
+      </c>
+      <c r="D41" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="32">
-        <v>498141</v>
-      </c>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
-        <v>32</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="32">
-        <v>447343</v>
-      </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30">
-        <v>33</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="32">
-        <v>408299</v>
-      </c>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="32">
-        <v>342029</v>
-      </c>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="32">
-        <v>258402</v>
-      </c>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="32">
-        <v>254051</v>
-      </c>
-      <c r="D37" s="35"/>
-    </row>
-    <row r="38" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="32">
-        <v>191849</v>
-      </c>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36">
-        <v>38</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="38">
-        <v>11813</v>
-      </c>
-      <c r="D39" s="39"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E41" s="52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4145,16 +4646,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2">
@@ -4180,16 +4681,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="2">
@@ -4215,16 +4716,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="2">
@@ -4250,16 +4751,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2">
@@ -4285,16 +4786,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="21">
         <v>5</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="2">
@@ -4320,16 +4821,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="21">
         <v>6</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2">
@@ -4355,16 +4856,16 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="21">
         <v>7</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="2">
@@ -4390,16 +4891,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="21">
         <v>8</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="2">
@@ -4425,16 +4926,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="44">
+      <c r="A10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="21">
         <v>9</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2">
@@ -4460,16 +4961,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="21">
         <v>10</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="2">
@@ -4495,16 +4996,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="21">
         <v>11</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="2">
@@ -4530,16 +5031,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="44">
+      <c r="A13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="21">
         <v>12</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2">
@@ -4565,16 +5066,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="21">
         <v>13</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="2">
@@ -4600,16 +5101,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="21">
         <v>14</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="2">
@@ -4635,16 +5136,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="21">
         <v>15</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2">
@@ -4670,16 +5171,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="21">
         <v>16</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="2">
@@ -4705,16 +5206,16 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="21">
         <v>17</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="2">
@@ -4740,16 +5241,16 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="21">
         <v>18</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="2">
@@ -4775,16 +5276,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="21">
         <v>19</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="2">
@@ -4810,16 +5311,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="21">
         <v>20</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="2">
@@ -4845,16 +5346,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="21">
         <v>21</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="2">
@@ -4880,16 +5381,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="21">
         <v>22</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2">
@@ -4915,16 +5416,16 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="21">
         <v>23</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="2">
@@ -4950,16 +5451,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="21">
         <v>24</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="2">
@@ -4985,16 +5486,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="21">
         <v>25</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="2">
@@ -5020,16 +5521,16 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="21">
         <v>26</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="2">
@@ -5055,16 +5556,16 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="21">
         <v>27</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="2">
@@ -5090,16 +5591,16 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="21">
         <v>28</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="2">
@@ -5125,16 +5626,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="21">
         <v>29</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="2">
@@ -5160,16 +5661,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="21">
         <v>30</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="2">
@@ -5195,16 +5696,16 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="21">
         <v>31</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="2">
@@ -5230,16 +5731,16 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="21">
         <v>32</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="2">
@@ -5265,16 +5766,16 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="21">
         <v>33</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="2">
@@ -5300,16 +5801,16 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="21">
         <v>34</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="2">
@@ -5335,16 +5836,16 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="21">
         <v>35</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="2">
@@ -5370,16 +5871,16 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="21">
         <v>36</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="2">
@@ -5405,16 +5906,16 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="21">
         <v>37</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="2">
@@ -5440,16 +5941,16 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="21">
         <v>38</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="2">
@@ -5475,16 +5976,16 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="21">
         <v>39</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="2">
@@ -5510,16 +6011,16 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="44">
+      <c r="A41" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="21">
         <v>40</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="2">
@@ -5545,16 +6046,16 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="21">
         <v>41</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="2">
@@ -5580,16 +6081,16 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="21">
         <v>42</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="2">
@@ -5615,16 +6116,16 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="21">
         <v>43</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="2">
@@ -5650,16 +6151,16 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="21">
         <v>44</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="2">
@@ -5685,16 +6186,16 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="21">
         <v>45</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="2">
@@ -5720,16 +6221,16 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="21">
         <v>46</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="2">
@@ -5755,16 +6256,16 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="21">
         <v>47</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="2">
@@ -5790,16 +6291,16 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="21">
         <v>48</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="2">
@@ -5825,16 +6326,16 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="21">
         <v>49</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="2">
@@ -5860,16 +6361,16 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="44">
+      <c r="A51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="21">
         <v>50</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="2">
@@ -5895,16 +6396,16 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="44">
+      <c r="A52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="21">
         <v>51</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="2">
@@ -5930,16 +6431,16 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="21">
         <v>52</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="2">
@@ -5965,16 +6466,16 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="21">
         <v>53</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="2">
@@ -6000,16 +6501,16 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B55" s="21">
         <v>54</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="2">
@@ -6035,16 +6536,16 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="44">
+      <c r="B56" s="21">
         <v>55</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E56" s="2">
@@ -6070,16 +6571,16 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="21">
         <v>56</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E57" s="2">
@@ -6105,16 +6606,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="21">
         <v>57</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E58" s="2">
@@ -6140,16 +6641,16 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="21">
         <v>58</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="2">
@@ -6175,16 +6676,16 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="21">
         <v>59</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="2">
@@ -6210,16 +6711,16 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B61" s="21">
         <v>60</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="2">
@@ -6245,16 +6746,16 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="21">
         <v>61</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E62" s="2">
@@ -6280,16 +6781,16 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B63" s="21">
         <v>62</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E63" s="2">
@@ -6315,16 +6816,16 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B64" s="21">
         <v>63</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E64" s="2">
@@ -6350,16 +6851,16 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="44">
+      <c r="A65" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="21">
         <v>64</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E65" s="2">
@@ -6385,16 +6886,16 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="44">
+      <c r="B66" s="21">
         <v>65</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E66" s="2">
@@ -6420,16 +6921,16 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="44">
+      <c r="B67" s="21">
         <v>66</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E67" s="2">
@@ -6455,16 +6956,16 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="44">
+      <c r="B68" s="21">
         <v>67</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="2">
@@ -6490,16 +6991,16 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="44">
+      <c r="B69" s="21">
         <v>68</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="2">
@@ -6525,16 +7026,16 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="44">
+      <c r="B70" s="21">
         <v>69</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E70" s="2">
@@ -6560,16 +7061,16 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="44">
+      <c r="B71" s="21">
         <v>70</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E71" s="2">
@@ -6595,16 +7096,16 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="44">
+      <c r="B72" s="21">
         <v>71</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="2">
@@ -6630,16 +7131,16 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="44">
+      <c r="B73" s="21">
         <v>72</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E73" s="2">
@@ -6665,16 +7166,16 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="44">
+      <c r="B74" s="21">
         <v>73</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="2">
@@ -6700,16 +7201,16 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="44">
+      <c r="B75" s="21">
         <v>74</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E75" s="2">
@@ -6735,16 +7236,16 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="44">
+      <c r="A76" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="21">
         <v>75</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="2">
@@ -6770,16 +7271,16 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="44">
+      <c r="B77" s="21">
         <v>76</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E77" s="2">
@@ -6805,16 +7306,16 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="44">
+      <c r="B78" s="21">
         <v>77</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E78" s="2">
@@ -6840,16 +7341,16 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="44">
+      <c r="B79" s="21">
         <v>78</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="2">
@@ -6875,16 +7376,16 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="44">
+      <c r="A80" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="21">
         <v>79</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E80" s="2">
@@ -6910,16 +7411,16 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="44">
+      <c r="B81" s="21">
         <v>80</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="43" t="s">
+      <c r="D81" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="2">
@@ -6945,16 +7446,16 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="44">
+      <c r="B82" s="21">
         <v>81</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E82" s="2">
@@ -6980,16 +7481,16 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="44">
+      <c r="B83" s="21">
         <v>82</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="43" t="s">
+      <c r="D83" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E83" s="2">
@@ -7015,16 +7516,16 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="44">
+      <c r="B84" s="21">
         <v>83</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D84" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E84" s="2">
@@ -7050,16 +7551,16 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="44">
+      <c r="B85" s="21">
         <v>84</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E85" s="2">
@@ -7085,16 +7586,16 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="44">
+      <c r="A86" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="21">
         <v>85</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E86" s="2">
@@ -7120,16 +7621,16 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="44">
+      <c r="B87" s="21">
         <v>86</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="2">
@@ -7155,16 +7656,16 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="44">
+      <c r="B88" s="21">
         <v>87</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="D88" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E88" s="2">
@@ -7190,16 +7691,16 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="44">
+      <c r="B89" s="21">
         <v>88</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="D89" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E89" s="2">
@@ -7225,16 +7726,16 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="44">
+      <c r="B90" s="21">
         <v>89</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E90" s="2">
@@ -7260,16 +7761,16 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="44">
+      <c r="B91" s="21">
         <v>90</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E91" s="2">
@@ -7295,16 +7796,16 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="44">
+      <c r="B92" s="21">
         <v>91</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E92" s="2">
@@ -7330,16 +7831,16 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="44">
+      <c r="A93" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="21">
         <v>92</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="2">
@@ -7365,16 +7866,16 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="44">
+      <c r="B94" s="21">
         <v>93</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E94" s="2">
@@ -7400,16 +7901,16 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="44">
+      <c r="B95" s="21">
         <v>94</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E95" s="2">
@@ -7435,16 +7936,16 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="44">
+      <c r="B96" s="21">
         <v>95</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E96" s="2">
@@ -7470,16 +7971,16 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="44">
+      <c r="B97" s="21">
         <v>96</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E97" s="2">
@@ -7505,16 +8006,16 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="44">
+      <c r="B98" s="21">
         <v>97</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="43" t="s">
+      <c r="D98" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E98" s="2">
@@ -7540,16 +8041,16 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="44">
+      <c r="B99" s="21">
         <v>98</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E99" s="2">
@@ -7575,16 +8076,16 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="44">
+      <c r="B100" s="21">
         <v>99</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E100" s="2">
@@ -7610,16 +8111,16 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="43" t="s">
+      <c r="A101" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="44">
+      <c r="B101" s="21">
         <v>100</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E101" s="2">
@@ -7645,16 +8146,16 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="44">
+      <c r="B102" s="21">
         <v>101</v>
       </c>
-      <c r="C102" s="43" t="s">
+      <c r="C102" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E102" s="2">
@@ -7680,16 +8181,16 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="44">
+      <c r="B103" s="21">
         <v>102</v>
       </c>
-      <c r="C103" s="43" t="s">
+      <c r="C103" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E103" s="2">
@@ -7715,16 +8216,16 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="44">
+      <c r="B104" s="21">
         <v>103</v>
       </c>
-      <c r="C104" s="43" t="s">
+      <c r="C104" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E104" s="2">
@@ -7750,16 +8251,16 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="44">
+      <c r="B105" s="21">
         <v>104</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E105" s="2">
@@ -7785,16 +8286,16 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="44">
+      <c r="B106" s="21">
         <v>105</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D106" s="20" t="s">
         <v>105</v>
       </c>
       <c r="E106" s="2">
@@ -7820,16 +8321,16 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="44">
+      <c r="B107" s="21">
         <v>106</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E107" s="2">
@@ -7855,16 +8356,16 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="44">
+      <c r="B108" s="21">
         <v>107</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E108" s="2">
@@ -7890,16 +8391,16 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="44">
+      <c r="B109" s="21">
         <v>108</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E109" s="2">
@@ -7925,16 +8426,16 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="44">
+      <c r="A110" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="21">
         <v>109</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E110" s="2">
@@ -7960,16 +8461,16 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="43" t="s">
+      <c r="A111" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="44">
+      <c r="B111" s="21">
         <v>110</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="C111" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E111" s="2">
@@ -7995,16 +8496,16 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="43" t="s">
+      <c r="A112" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="44">
+      <c r="B112" s="21">
         <v>111</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C112" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E112" s="2">
@@ -8030,16 +8531,16 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="43" t="s">
+      <c r="A113" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="44">
+      <c r="B113" s="21">
         <v>112</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D113" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E113" s="2">
@@ -8065,16 +8566,16 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="44">
+      <c r="B114" s="21">
         <v>113</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E114" s="2">
@@ -8100,16 +8601,16 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="44">
+      <c r="B115" s="21">
         <v>114</v>
       </c>
-      <c r="C115" s="43" t="s">
+      <c r="C115" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E115" s="2">
@@ -8135,16 +8636,16 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="44">
+      <c r="B116" s="21">
         <v>115</v>
       </c>
-      <c r="C116" s="43" t="s">
+      <c r="C116" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E116" s="2">
@@ -8170,16 +8671,16 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="43" t="s">
+      <c r="A117" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="44">
+      <c r="B117" s="21">
         <v>116</v>
       </c>
-      <c r="C117" s="43" t="s">
+      <c r="C117" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E117" s="2">
@@ -8205,16 +8706,16 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="44">
+      <c r="B118" s="21">
         <v>117</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D118" s="43" t="s">
+      <c r="D118" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E118" s="2">
@@ -8240,16 +8741,16 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="43" t="s">
+      <c r="A119" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="44">
+      <c r="B119" s="21">
         <v>118</v>
       </c>
-      <c r="C119" s="43" t="s">
+      <c r="C119" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D119" s="43" t="s">
+      <c r="D119" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E119" s="2">
@@ -8275,16 +8776,16 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="43" t="s">
+      <c r="A120" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="44">
+      <c r="B120" s="21">
         <v>119</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C120" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D120" s="43" t="s">
+      <c r="D120" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E120" s="2">
@@ -8310,16 +8811,16 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="44">
+      <c r="B121" s="21">
         <v>120</v>
       </c>
-      <c r="C121" s="43" t="s">
+      <c r="C121" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D121" s="43" t="s">
+      <c r="D121" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="2">
@@ -8345,16 +8846,16 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="44">
+      <c r="B122" s="21">
         <v>121</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C122" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D122" s="43" t="s">
+      <c r="D122" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E122" s="2">
@@ -8380,16 +8881,16 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="44">
+      <c r="B123" s="21">
         <v>122</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D123" s="43" t="s">
+      <c r="D123" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E123" s="2">
@@ -8415,16 +8916,16 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="44">
+      <c r="B124" s="21">
         <v>123</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C124" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="43" t="s">
+      <c r="D124" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="2">
@@ -8450,16 +8951,16 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="44">
+      <c r="B125" s="21">
         <v>124</v>
       </c>
-      <c r="C125" s="43" t="s">
+      <c r="C125" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D125" s="43" t="s">
+      <c r="D125" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E125" s="2">
@@ -8485,16 +8986,16 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="43" t="s">
+      <c r="A126" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="44">
+      <c r="B126" s="21">
         <v>125</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="43" t="s">
+      <c r="D126" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E126" s="2">
@@ -8520,16 +9021,16 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="44">
+      <c r="B127" s="21">
         <v>126</v>
       </c>
-      <c r="C127" s="43" t="s">
+      <c r="C127" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="D127" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E127" s="2">
@@ -8555,16 +9056,16 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="43" t="s">
+      <c r="A128" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="44">
+      <c r="B128" s="21">
         <v>127</v>
       </c>
-      <c r="C128" s="43" t="s">
+      <c r="C128" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="43" t="s">
+      <c r="D128" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E128" s="2">
@@ -8590,16 +9091,16 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="44">
+      <c r="B129" s="21">
         <v>128</v>
       </c>
-      <c r="C129" s="43" t="s">
+      <c r="C129" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="43" t="s">
+      <c r="D129" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E129" s="2">
@@ -8625,16 +9126,16 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="44">
+      <c r="B130" s="21">
         <v>129</v>
       </c>
-      <c r="C130" s="43" t="s">
+      <c r="C130" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="43" t="s">
+      <c r="D130" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E130" s="2">
@@ -8660,16 +9161,16 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="44">
+      <c r="B131" s="21">
         <v>130</v>
       </c>
-      <c r="C131" s="43" t="s">
+      <c r="C131" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="43" t="s">
+      <c r="D131" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E131" s="2">
@@ -8695,16 +9196,16 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="44">
+      <c r="B132" s="21">
         <v>131</v>
       </c>
-      <c r="C132" s="43" t="s">
+      <c r="C132" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D132" s="43" t="s">
+      <c r="D132" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E132" s="2">
@@ -8730,16 +9231,16 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="44">
+      <c r="B133" s="21">
         <v>132</v>
       </c>
-      <c r="C133" s="43" t="s">
+      <c r="C133" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D133" s="43" t="s">
+      <c r="D133" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E133" s="2">
@@ -8765,16 +9266,16 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="44">
+      <c r="B134" s="21">
         <v>133</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C134" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D134" s="43" t="s">
+      <c r="D134" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E134" s="2">
@@ -8800,16 +9301,16 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="44">
+      <c r="B135" s="21">
         <v>134</v>
       </c>
-      <c r="C135" s="43" t="s">
+      <c r="C135" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D135" s="43" t="s">
+      <c r="D135" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E135" s="2">
@@ -8835,16 +9336,16 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="43" t="s">
+      <c r="A136" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="44">
+      <c r="B136" s="21">
         <v>135</v>
       </c>
-      <c r="C136" s="43" t="s">
+      <c r="C136" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D136" s="43" t="s">
+      <c r="D136" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E136" s="2">
@@ -8870,16 +9371,16 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="44">
+      <c r="B137" s="21">
         <v>136</v>
       </c>
-      <c r="C137" s="43" t="s">
+      <c r="C137" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D137" s="43" t="s">
+      <c r="D137" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E137" s="2">
@@ -8905,16 +9406,16 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="44">
+      <c r="A138" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="21">
         <v>137</v>
       </c>
-      <c r="C138" s="43" t="s">
+      <c r="C138" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D138" s="43" t="s">
+      <c r="D138" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E138" s="2">
@@ -8940,16 +9441,16 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="43" t="s">
+      <c r="A139" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="44">
+      <c r="B139" s="21">
         <v>138</v>
       </c>
-      <c r="C139" s="43" t="s">
+      <c r="C139" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="43" t="s">
+      <c r="D139" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E139" s="2">
@@ -8975,16 +9476,16 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="44">
+      <c r="B140" s="21">
         <v>139</v>
       </c>
-      <c r="C140" s="43" t="s">
+      <c r="C140" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="43" t="s">
+      <c r="D140" s="20" t="s">
         <v>106</v>
       </c>
       <c r="E140" s="2">
@@ -9010,16 +9511,16 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B141" s="44">
+      <c r="B141" s="21">
         <v>140</v>
       </c>
-      <c r="C141" s="43" t="s">
+      <c r="C141" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="D141" s="20" t="s">
         <v>97</v>
       </c>
       <c r="E141" s="2">
@@ -9045,16 +9546,16 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="43" t="s">
+      <c r="A142" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="44">
+      <c r="B142" s="21">
         <v>141</v>
       </c>
-      <c r="C142" s="43" t="s">
+      <c r="C142" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D142" s="43" t="s">
+      <c r="D142" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E142" s="2">
@@ -9080,16 +9581,16 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="43" t="s">
+      <c r="A143" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="44">
+      <c r="B143" s="21">
         <v>142</v>
       </c>
-      <c r="C143" s="43" t="s">
+      <c r="C143" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="43" t="s">
+      <c r="D143" s="20" t="s">
         <v>107</v>
       </c>
       <c r="E143" s="2">
@@ -9115,16 +9616,16 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="44">
+      <c r="B144" s="21">
         <v>143</v>
       </c>
-      <c r="C144" s="43" t="s">
+      <c r="C144" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D144" s="43" t="s">
+      <c r="D144" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E144" s="2">
@@ -9150,16 +9651,16 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="43" t="s">
+      <c r="A145" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B145" s="44">
+      <c r="B145" s="21">
         <v>144</v>
       </c>
-      <c r="C145" s="43" t="s">
+      <c r="C145" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D145" s="43" t="s">
+      <c r="D145" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E145" s="2">
@@ -9185,16 +9686,16 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="44">
+      <c r="B146" s="21">
         <v>145</v>
       </c>
-      <c r="C146" s="43" t="s">
+      <c r="C146" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D146" s="43" t="s">
+      <c r="D146" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E146" s="2">
@@ -9220,16 +9721,16 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="44">
+      <c r="B147" s="21">
         <v>146</v>
       </c>
-      <c r="C147" s="43" t="s">
+      <c r="C147" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="43" t="s">
+      <c r="D147" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E147" s="2">
@@ -9255,16 +9756,16 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B148" s="44">
+      <c r="B148" s="21">
         <v>147</v>
       </c>
-      <c r="C148" s="43" t="s">
+      <c r="C148" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D148" s="43" t="s">
+      <c r="D148" s="20" t="s">
         <v>99</v>
       </c>
       <c r="E148" s="2">
@@ -9290,16 +9791,16 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="44">
+      <c r="B149" s="21">
         <v>148</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D149" s="43" t="s">
+      <c r="D149" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E149" s="2">
@@ -9325,16 +9826,16 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B150" s="44">
+      <c r="B150" s="21">
         <v>149</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="43" t="s">
+      <c r="D150" s="20" t="s">
         <v>108</v>
       </c>
       <c r="E150" s="2">
@@ -9360,16 +9861,16 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="44">
+      <c r="B151" s="21">
         <v>150</v>
       </c>
-      <c r="C151" s="43" t="s">
+      <c r="C151" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D151" s="43" t="s">
+      <c r="D151" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E151" s="2">
@@ -9395,16 +9896,16 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="44">
+      <c r="B152" s="21">
         <v>151</v>
       </c>
-      <c r="C152" s="43" t="s">
+      <c r="C152" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D152" s="43" t="s">
+      <c r="D152" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E152" s="2">
@@ -9430,16 +9931,16 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B153" s="44">
+      <c r="B153" s="21">
         <v>152</v>
       </c>
-      <c r="C153" s="43" t="s">
+      <c r="C153" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D153" s="43" t="s">
+      <c r="D153" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E153" s="2">
@@ -9465,16 +9966,16 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="43" t="s">
+      <c r="A154" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B154" s="44">
+      <c r="B154" s="21">
         <v>153</v>
       </c>
-      <c r="C154" s="43" t="s">
+      <c r="C154" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D154" s="43" t="s">
+      <c r="D154" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E154" s="2">
@@ -9500,16 +10001,16 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B155" s="44">
+      <c r="B155" s="21">
         <v>154</v>
       </c>
-      <c r="C155" s="43" t="s">
+      <c r="C155" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D155" s="43" t="s">
+      <c r="D155" s="20" t="s">
         <v>98</v>
       </c>
       <c r="E155" s="2">
@@ -9535,16 +10036,16 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="44">
+      <c r="B156" s="21">
         <v>155</v>
       </c>
-      <c r="C156" s="43" t="s">
+      <c r="C156" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D156" s="43" t="s">
+      <c r="D156" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E156" s="2">
@@ -9570,16 +10071,16 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="43" t="s">
+      <c r="A157" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="44">
+      <c r="B157" s="21">
         <v>156</v>
       </c>
-      <c r="C157" s="43" t="s">
+      <c r="C157" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D157" s="43" t="s">
+      <c r="D157" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E157" s="2">
@@ -9605,16 +10106,16 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="44">
+      <c r="B158" s="21">
         <v>157</v>
       </c>
-      <c r="C158" s="43" t="s">
+      <c r="C158" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D158" s="43" t="s">
+      <c r="D158" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E158" s="2">
@@ -9640,16 +10141,16 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="43" t="s">
+      <c r="A159" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="44">
+      <c r="B159" s="21">
         <v>158</v>
       </c>
-      <c r="C159" s="43" t="s">
+      <c r="C159" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D159" s="43" t="s">
+      <c r="D159" s="20" t="s">
         <v>62</v>
       </c>
       <c r="E159" s="2">
@@ -9675,16 +10176,16 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="44">
+      <c r="B160" s="21">
         <v>159</v>
       </c>
-      <c r="C160" s="43" t="s">
+      <c r="C160" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D160" s="43" t="s">
+      <c r="D160" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E160" s="2">
@@ -9710,16 +10211,16 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="44">
+      <c r="B161" s="21">
         <v>160</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C161" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D161" s="43" t="s">
+      <c r="D161" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E161" s="2">
@@ -9745,16 +10246,16 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="44">
+      <c r="B162" s="21">
         <v>161</v>
       </c>
-      <c r="C162" s="43" t="s">
+      <c r="C162" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D162" s="43" t="s">
+      <c r="D162" s="20" t="s">
         <v>99</v>
       </c>
       <c r="E162" s="2">
@@ -9780,16 +10281,16 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="43" t="s">
+      <c r="A163" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="44">
+      <c r="B163" s="21">
         <v>162</v>
       </c>
-      <c r="C163" s="43" t="s">
+      <c r="C163" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="43" t="s">
+      <c r="D163" s="20" t="s">
         <v>98</v>
       </c>
       <c r="E163" s="2">
@@ -9815,16 +10316,16 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B164" s="44">
+      <c r="B164" s="21">
         <v>163</v>
       </c>
-      <c r="C164" s="43" t="s">
+      <c r="C164" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D164" s="43" t="s">
+      <c r="D164" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E164" s="2">
@@ -9850,16 +10351,16 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="43" t="s">
+      <c r="A165" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B165" s="44">
+      <c r="B165" s="21">
         <v>164</v>
       </c>
-      <c r="C165" s="43" t="s">
+      <c r="C165" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D165" s="43" t="s">
+      <c r="D165" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E165" s="2">
@@ -9885,16 +10386,16 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="43" t="s">
+      <c r="A166" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="44">
+      <c r="B166" s="21">
         <v>165</v>
       </c>
-      <c r="C166" s="43" t="s">
+      <c r="C166" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D166" s="43" t="s">
+      <c r="D166" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E166" s="2">
@@ -9920,16 +10421,16 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="43" t="s">
+      <c r="A167" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="44">
+      <c r="B167" s="21">
         <v>166</v>
       </c>
-      <c r="C167" s="43" t="s">
+      <c r="C167" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="43" t="s">
+      <c r="D167" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E167" s="2">
@@ -9955,16 +10456,16 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="43" t="s">
+      <c r="A168" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="44">
+      <c r="B168" s="21">
         <v>167</v>
       </c>
-      <c r="C168" s="43" t="s">
+      <c r="C168" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D168" s="43" t="s">
+      <c r="D168" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E168" s="2">
@@ -9990,16 +10491,16 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="43" t="s">
+      <c r="A169" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B169" s="44">
+      <c r="B169" s="21">
         <v>168</v>
       </c>
-      <c r="C169" s="43" t="s">
+      <c r="C169" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D169" s="43" t="s">
+      <c r="D169" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E169" s="2">
@@ -10025,16 +10526,16 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="43" t="s">
+      <c r="A170" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B170" s="44">
+      <c r="B170" s="21">
         <v>169</v>
       </c>
-      <c r="C170" s="43" t="s">
+      <c r="C170" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D170" s="43" t="s">
+      <c r="D170" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E170" s="2">
@@ -10060,16 +10561,16 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="43" t="s">
+      <c r="A171" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="44">
+      <c r="B171" s="21">
         <v>170</v>
       </c>
-      <c r="C171" s="43" t="s">
+      <c r="C171" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D171" s="43" t="s">
+      <c r="D171" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E171" s="2">
@@ -10095,16 +10596,16 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="44">
+      <c r="B172" s="21">
         <v>171</v>
       </c>
-      <c r="C172" s="43" t="s">
+      <c r="C172" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D172" s="43" t="s">
+      <c r="D172" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E172" s="2">
@@ -10130,16 +10631,16 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="43" t="s">
+      <c r="A173" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="44">
+      <c r="B173" s="21">
         <v>172</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C173" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D173" s="43" t="s">
+      <c r="D173" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E173" s="2">
@@ -10165,16 +10666,16 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="44">
+      <c r="B174" s="21">
         <v>173</v>
       </c>
-      <c r="C174" s="43" t="s">
+      <c r="C174" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D174" s="43" t="s">
+      <c r="D174" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E174" s="2">
@@ -10200,16 +10701,16 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="43" t="s">
+      <c r="A175" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="44">
+      <c r="B175" s="21">
         <v>174</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C175" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D175" s="43" t="s">
+      <c r="D175" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E175" s="2">
@@ -10235,16 +10736,16 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="44">
+      <c r="B176" s="21">
         <v>175</v>
       </c>
-      <c r="C176" s="43" t="s">
+      <c r="C176" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D176" s="43" t="s">
+      <c r="D176" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E176" s="2">
@@ -10270,16 +10771,16 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="44">
+      <c r="B177" s="21">
         <v>176</v>
       </c>
-      <c r="C177" s="43" t="s">
+      <c r="C177" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D177" s="43" t="s">
+      <c r="D177" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E177" s="2">
@@ -10305,16 +10806,16 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="44">
+      <c r="B178" s="21">
         <v>177</v>
       </c>
-      <c r="C178" s="43" t="s">
+      <c r="C178" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D178" s="43" t="s">
+      <c r="D178" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E178" s="2">
@@ -10340,16 +10841,16 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="43" t="s">
+      <c r="A179" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="44">
+      <c r="B179" s="21">
         <v>178</v>
       </c>
-      <c r="C179" s="43" t="s">
+      <c r="C179" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D179" s="43" t="s">
+      <c r="D179" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E179" s="2">
@@ -10375,16 +10876,16 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="43" t="s">
+      <c r="A180" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B180" s="44">
+      <c r="B180" s="21">
         <v>179</v>
       </c>
-      <c r="C180" s="43" t="s">
+      <c r="C180" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D180" s="43" t="s">
+      <c r="D180" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E180" s="2">
@@ -10410,16 +10911,16 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B181" s="44">
+      <c r="B181" s="21">
         <v>180</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D181" s="43" t="s">
+      <c r="D181" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E181" s="2">
@@ -10445,16 +10946,16 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="43" t="s">
+      <c r="A182" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B182" s="44">
+      <c r="B182" s="21">
         <v>181</v>
       </c>
-      <c r="C182" s="43" t="s">
+      <c r="C182" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D182" s="43" t="s">
+      <c r="D182" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E182" s="2">
@@ -10480,16 +10981,16 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="43" t="s">
+      <c r="A183" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="44">
+      <c r="B183" s="21">
         <v>182</v>
       </c>
-      <c r="C183" s="43" t="s">
+      <c r="C183" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D183" s="43" t="s">
+      <c r="D183" s="20" t="s">
         <v>104</v>
       </c>
       <c r="E183" s="2">
@@ -10515,16 +11016,16 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="43" t="s">
+      <c r="A184" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="44">
+      <c r="B184" s="21">
         <v>183</v>
       </c>
-      <c r="C184" s="43" t="s">
+      <c r="C184" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D184" s="43" t="s">
+      <c r="D184" s="20" t="s">
         <v>109</v>
       </c>
       <c r="E184" s="2">
@@ -10550,16 +11051,16 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="43" t="s">
+      <c r="A185" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B185" s="44">
+      <c r="B185" s="21">
         <v>184</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C185" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D185" s="43" t="s">
+      <c r="D185" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E185" s="2">
@@ -10585,16 +11086,16 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B186" s="44">
+      <c r="B186" s="21">
         <v>185</v>
       </c>
-      <c r="C186" s="43" t="s">
+      <c r="C186" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D186" s="43" t="s">
+      <c r="D186" s="20" t="s">
         <v>110</v>
       </c>
       <c r="E186" s="2">
@@ -10620,16 +11121,16 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="43" t="s">
+      <c r="A187" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B187" s="44">
+      <c r="B187" s="21">
         <v>186</v>
       </c>
-      <c r="C187" s="43" t="s">
+      <c r="C187" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D187" s="43" t="s">
+      <c r="D187" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E187" s="2">
@@ -10655,16 +11156,16 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B188" s="44">
+      <c r="B188" s="21">
         <v>187</v>
       </c>
-      <c r="C188" s="43" t="s">
+      <c r="C188" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D188" s="43" t="s">
+      <c r="D188" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E188" s="2">
@@ -10690,16 +11191,16 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="43" t="s">
+      <c r="A189" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="44">
+      <c r="B189" s="21">
         <v>188</v>
       </c>
-      <c r="C189" s="43" t="s">
+      <c r="C189" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D189" s="43" t="s">
+      <c r="D189" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E189" s="2">
@@ -10725,16 +11226,16 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="44">
+      <c r="B190" s="21">
         <v>189</v>
       </c>
-      <c r="C190" s="43" t="s">
+      <c r="C190" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D190" s="43" t="s">
+      <c r="D190" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E190" s="2">
@@ -10760,16 +11261,16 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="44">
+      <c r="B191" s="21">
         <v>190</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C191" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D191" s="43" t="s">
+      <c r="D191" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E191" s="2">
@@ -10830,22 +11331,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>20</v>
@@ -10858,7 +11359,7 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5">
@@ -10890,7 +11391,7 @@
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="5">
@@ -10922,7 +11423,7 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="5">
@@ -10955,7 +11456,7 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5">
@@ -10987,7 +11488,7 @@
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="5">
@@ -11019,7 +11520,7 @@
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="5">
@@ -11051,7 +11552,7 @@
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="5">
@@ -11083,7 +11584,7 @@
       <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="5">
@@ -11115,7 +11616,7 @@
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="5">
@@ -11147,7 +11648,7 @@
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="5">
@@ -11179,7 +11680,7 @@
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="5">
@@ -11211,7 +11712,7 @@
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="5">
@@ -11243,7 +11744,7 @@
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="5">
@@ -11894,7 +12395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -12627,25 +13128,25 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="17">
         <v>567126</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="17">
         <v>390782</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="17">
         <v>453510</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="17">
         <v>900000</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="17">
         <v>226818</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="17">
         <v>212378</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="17">
         <f>SUM(D2:I2)</f>
         <v>2750614</v>
       </c>
@@ -12660,25 +13161,25 @@
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="17">
         <v>641703</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="17">
         <v>255893</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="17">
         <v>234709</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="17">
         <v>492569</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="17">
         <v>84974</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="17">
         <v>380703</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="17">
         <f t="shared" ref="J3:J15" si="0">SUM(D3:I3)</f>
         <v>2090551</v>
       </c>
@@ -12693,25 +13194,25 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="17">
         <v>186355</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="17">
         <v>271267</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="17">
         <v>332000</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="17">
         <v>327743</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="17">
         <v>214485</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="17">
         <v>507803</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="17">
         <f t="shared" si="0"/>
         <v>1839653</v>
       </c>
@@ -12726,25 +13227,25 @@
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="17">
         <v>64442</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="17">
         <v>89772</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="17">
         <v>47062</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="17">
         <v>397685</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="17">
         <v>285255</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="17">
         <v>411176</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="17">
         <f t="shared" si="0"/>
         <v>1295392</v>
       </c>
@@ -12759,25 +13260,25 @@
       <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="17">
         <v>474258</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="17">
         <v>120418</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="17">
         <v>156210</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="17">
         <v>141816</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="17">
         <v>108489</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="17">
         <v>230053</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="17">
         <f t="shared" si="0"/>
         <v>1231244</v>
       </c>
@@ -12792,25 +13293,25 @@
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="17">
         <v>337470</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="17">
         <v>147690</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="17">
         <v>181176</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="17">
         <v>175467</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="17">
         <v>151217</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="17">
         <v>231537</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="17">
         <f t="shared" si="0"/>
         <v>1224557</v>
       </c>
@@ -12825,25 +13326,25 @@
       <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="17">
         <v>154970</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="17">
         <v>43143</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="17">
         <v>95729</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="17">
         <v>65148</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="17">
         <v>70544</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="17">
         <v>78947</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="17">
         <f t="shared" si="0"/>
         <v>508481</v>
       </c>
@@ -12858,25 +13359,25 @@
       <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="40">
-        <v>0</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>362897</v>
       </c>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="40">
-        <v>0</v>
-      </c>
-      <c r="H9" s="40">
-        <v>0</v>
-      </c>
-      <c r="I9" s="40">
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>362897</v>
       </c>
@@ -12891,25 +13392,25 @@
       <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="17">
         <v>134829</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="17">
         <v>51131</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="17">
         <v>45555</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="17">
         <v>73880</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="17">
         <v>31318</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="17">
         <v>1005</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="17">
         <f t="shared" si="0"/>
         <v>337718</v>
       </c>
@@ -12924,25 +13425,25 @@
       <c r="C11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="40">
-        <v>0</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
         <v>172942</v>
       </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
-      <c r="G11" s="40">
-        <v>0</v>
-      </c>
-      <c r="H11" s="40">
-        <v>0</v>
-      </c>
-      <c r="I11" s="40">
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
         <v>161193</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="17">
         <f t="shared" si="0"/>
         <v>334135</v>
       </c>
@@ -12957,25 +13458,25 @@
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="40">
-        <v>0</v>
-      </c>
-      <c r="E12" s="40">
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>77449</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="17">
         <v>91508</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="17">
         <v>52388</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="17">
         <v>25690</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="17">
         <v>59317</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="17">
         <f t="shared" si="0"/>
         <v>306352</v>
       </c>
@@ -12990,25 +13491,25 @@
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="40">
-        <v>0</v>
-      </c>
-      <c r="E13" s="40">
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
         <v>52301</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="17">
         <v>64926</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="17">
         <v>49817</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="17">
         <v>18068</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="17">
         <v>40177</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="17">
         <f t="shared" si="0"/>
         <v>225289</v>
       </c>
@@ -13023,25 +13524,25 @@
       <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="40">
-        <v>0</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0</v>
-      </c>
-      <c r="F14" s="40">
-        <v>0</v>
-      </c>
-      <c r="G14" s="40">
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
         <v>10000</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -13056,25 +13557,25 @@
       <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="40">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40">
-        <v>0</v>
-      </c>
-      <c r="G15" s="40">
-        <v>0</v>
-      </c>
-      <c r="H15" s="40">
-        <v>0</v>
-      </c>
-      <c r="I15" s="40">
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
         <v>10000</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -15127,18 +15628,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="9" t="str">
         <f t="shared" ref="D24:J24" ca="1" si="1">SUM(D2:D24)</f>
         <v/>
